--- a/results_step3_zonal.xlsx
+++ b/results_step3_zonal.xlsx
@@ -15,12 +15,15 @@
   <sheets>
     <sheet name="DA_Prices" sheetId="1" r:id="rId1"/>
     <sheet name="Flows" r:id="rId5" sheetId="2"/>
-    <sheet name="Generation" r:id="rId6" sheetId="3"/>
-    <sheet name="Demand" r:id="rId7" sheetId="4"/>
-    <sheet name="Wind" r:id="rId8" sheetId="5"/>
-    <sheet name="Zonal_Generation" r:id="rId9" sheetId="6"/>
-    <sheet name="Zonal_Demand" r:id="rId10" sheetId="7"/>
-    <sheet name="Zonal_Wind" r:id="rId11" sheetId="8"/>
+    <sheet name="Flows_1" r:id="rId6" sheetId="3"/>
+    <sheet name="Flows_2" r:id="rId7" sheetId="4"/>
+    <sheet name="Flows_3" r:id="rId8" sheetId="5"/>
+    <sheet name="Generation" r:id="rId9" sheetId="6"/>
+    <sheet name="Demand" r:id="rId10" sheetId="7"/>
+    <sheet name="Wind" r:id="rId11" sheetId="8"/>
+    <sheet name="Zonal_Generation" r:id="rId12" sheetId="9"/>
+    <sheet name="Zonal_Demand" r:id="rId13" sheetId="10"/>
+    <sheet name="Zonal_Wind" r:id="rId14" sheetId="11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -462,244 +465,244 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B2">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C2">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B3">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C3">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>10.169999999999998</v>
+        <v>10.0</v>
       </c>
       <c r="B4">
-        <v>10.169999999999998</v>
+        <v>10.0</v>
       </c>
       <c r="C4">
-        <v>10.169999999999998</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B5">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C5">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>10.169999999999998</v>
+        <v>10.0</v>
       </c>
       <c r="B6">
-        <v>10.169999999999998</v>
+        <v>10.0</v>
       </c>
       <c r="C6">
-        <v>10.169999999999998</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6.95</v>
+        <v>10.0</v>
       </c>
       <c r="B7">
-        <v>6.95</v>
+        <v>10.0</v>
       </c>
       <c r="C7">
-        <v>6.95</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>7.76</v>
+        <v>10.52</v>
       </c>
       <c r="B8">
-        <v>7.76</v>
+        <v>10.52</v>
       </c>
       <c r="C8">
-        <v>7.76</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
       <c r="B9">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
       <c r="C9">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
       <c r="B10">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
       <c r="C10">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>10.17</v>
+        <v>10.52</v>
       </c>
       <c r="B11">
-        <v>10.17</v>
+        <v>10.52</v>
       </c>
       <c r="C11">
-        <v>10.17</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6.02</v>
+        <v>10.52</v>
       </c>
       <c r="B12">
-        <v>6.02</v>
+        <v>10.52</v>
       </c>
       <c r="C12">
-        <v>6.02</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B13">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C13">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
       <c r="B14">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
       <c r="C14">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
       <c r="B15">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
       <c r="C15">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B16">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C16">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B17">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C17">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B18">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C18">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>6.02</v>
+        <v>10.52</v>
       </c>
       <c r="B19">
-        <v>6.02</v>
+        <v>10.52</v>
       </c>
       <c r="C19">
-        <v>6.02</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
       <c r="B20">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
       <c r="C20">
-        <v>10.52</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>10.169999999999998</v>
+        <v>10.89</v>
       </c>
       <c r="B21">
-        <v>10.169999999999998</v>
+        <v>10.89</v>
       </c>
       <c r="C21">
-        <v>10.169999999999998</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="B22">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
       <c r="C22">
-        <v>10.169999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
       <c r="B23">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
       <c r="C23">
-        <v>10.169999999999998</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -715,13 +718,589 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>9.91</v>
+        <v>10.0</v>
       </c>
       <c r="B25">
-        <v>9.91</v>
+        <v>10.0</v>
       </c>
       <c r="C25">
-        <v>9.91</v>
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>541.62</v>
+      </c>
+      <c r="B2">
+        <v>310.78000000000003</v>
+      </c>
+      <c r="C2">
+        <v>390.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>890.0099999999999</v>
+      </c>
+      <c r="B3">
+        <v>247.14</v>
+      </c>
+      <c r="C3">
+        <v>153.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>661.56</v>
+      </c>
+      <c r="B4">
+        <v>235.36999999999998</v>
+      </c>
+      <c r="C4">
+        <v>241.72000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>550.45</v>
+      </c>
+      <c r="B5">
+        <v>386.25</v>
+      </c>
+      <c r="C5">
+        <v>344.03999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>688.0600000000001</v>
+      </c>
+      <c r="B6">
+        <v>248.64</v>
+      </c>
+      <c r="C6">
+        <v>250.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>559.78</v>
+      </c>
+      <c r="B7">
+        <v>338.74</v>
+      </c>
+      <c r="C7">
+        <v>241.72000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>794.35</v>
+      </c>
+      <c r="B8">
+        <v>241.25</v>
+      </c>
+      <c r="C8">
+        <v>313.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1135.1499999999999</v>
+      </c>
+      <c r="B9">
+        <v>485.53000000000003</v>
+      </c>
+      <c r="C9">
+        <v>364.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1180.9299999999998</v>
+      </c>
+      <c r="B10">
+        <v>224.10000000000002</v>
+      </c>
+      <c r="C10">
+        <v>553.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1356.2099999999998</v>
+      </c>
+      <c r="B11">
+        <v>468.17999999999995</v>
+      </c>
+      <c r="C11">
+        <v>295.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>664.11</v>
+      </c>
+      <c r="B12">
+        <v>473.27</v>
+      </c>
+      <c r="C12">
+        <v>559.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1062.58</v>
+      </c>
+      <c r="B13">
+        <v>493.52</v>
+      </c>
+      <c r="C13">
+        <v>443.15999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1047.48</v>
+      </c>
+      <c r="B14">
+        <v>621.9399999999999</v>
+      </c>
+      <c r="C14">
+        <v>553.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1107.91</v>
+      </c>
+      <c r="B15">
+        <v>536.3299999999999</v>
+      </c>
+      <c r="C15">
+        <v>553.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1084.58</v>
+      </c>
+      <c r="B16">
+        <v>389.46000000000004</v>
+      </c>
+      <c r="C16">
+        <v>433.84000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>939.15</v>
+      </c>
+      <c r="B17">
+        <v>303.19</v>
+      </c>
+      <c r="C17">
+        <v>542.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1062.72</v>
+      </c>
+      <c r="B18">
+        <v>482.81</v>
+      </c>
+      <c r="C18">
+        <v>577.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>893.2199999999999</v>
+      </c>
+      <c r="B19">
+        <v>402.87</v>
+      </c>
+      <c r="C19">
+        <v>402.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1319.9500000000003</v>
+      </c>
+      <c r="B20">
+        <v>564.55</v>
+      </c>
+      <c r="C20">
+        <v>455.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1267.1499999999999</v>
+      </c>
+      <c r="B21">
+        <v>628.48</v>
+      </c>
+      <c r="C21">
+        <v>386.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1017.85</v>
+      </c>
+      <c r="B22">
+        <v>535.45</v>
+      </c>
+      <c r="C22">
+        <v>366.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1172.55</v>
+      </c>
+      <c r="B23">
+        <v>543.38</v>
+      </c>
+      <c r="C23">
+        <v>255.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1031.28</v>
+      </c>
+      <c r="B24">
+        <v>477.9200000000001</v>
+      </c>
+      <c r="C24">
+        <v>340.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>611.15</v>
+      </c>
+      <c r="B25">
+        <v>412.45000000000005</v>
+      </c>
+      <c r="C25">
+        <v>153.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>48.81371026</v>
+      </c>
+      <c r="B2">
+        <v>2.3100795000000005</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>59.04889109999999</v>
+      </c>
+      <c r="B3">
+        <v>131.72110890000022</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>72.76598429</v>
+      </c>
+      <c r="B4">
+        <v>25.438532400000014</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>80.22203255</v>
+      </c>
+      <c r="B5">
+        <v>51.37290329999999</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>84.80854979</v>
+      </c>
+      <c r="B6">
+        <v>71.59056030000002</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>83.47628135</v>
+      </c>
+      <c r="B7">
+        <v>97.72723919999999</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>84.32654209</v>
+      </c>
+      <c r="B8">
+        <v>165.09345791000038</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>89.15188094</v>
+      </c>
+      <c r="B9">
+        <v>308.3522994</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>89.87253648000001</v>
+      </c>
+      <c r="B10">
+        <v>161.6653833</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>86.09354504000001</v>
+      </c>
+      <c r="B11">
+        <v>313.45645495999986</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>89.50367267</v>
+      </c>
+      <c r="B12">
+        <v>183.6180098733326</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>84.45273154</v>
+      </c>
+      <c r="B13">
+        <v>194.80726846</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>79.72201654999999</v>
+      </c>
+      <c r="B14">
+        <v>274.8474225</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>78.0629051</v>
+      </c>
+      <c r="B15">
+        <v>367.6111068</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>72.89270936</v>
+      </c>
+      <c r="B16">
+        <v>369.0099435133336</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>73.16736487</v>
+      </c>
+      <c r="B17">
+        <v>228.99228449999998</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>70.57802365</v>
+      </c>
+      <c r="B18">
+        <v>332.2319763500002</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>70.71318262</v>
+      </c>
+      <c r="B19">
+        <v>411.7687254</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>70.36597022000001</v>
+      </c>
+      <c r="B20">
+        <v>452.5652271</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>78.14025862</v>
+      </c>
+      <c r="B21">
+        <v>459.1873869</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>82.81893619</v>
+      </c>
+      <c r="B22">
+        <v>463.4855283</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>80.85664458</v>
+      </c>
+      <c r="B23">
+        <v>273.54054510000003</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>73.025871</v>
+      </c>
+      <c r="B24">
+        <v>368.7177009</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>65.26244337</v>
+      </c>
+      <c r="B25">
+        <v>135.98074169999998</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -753,29 +1332,29 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>-352.81596474</v>
+        <v>1500.0</v>
       </c>
       <c r="C2">
-        <v>1000.0</v>
+        <v>-800.8400794999998</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>352.81596474</v>
+        <v>-1500.0</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>-609.3162999999998</v>
+        <v>1191.5300794999998</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-1000.0</v>
+        <v>800.8400794999998</v>
       </c>
       <c r="B4">
-        <v>609.3162999999998</v>
+        <v>-1191.5300794999998</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -787,6 +1366,870 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="B2">
+        <v>1500.0</v>
+      </c>
+      <c r="C2">
+        <v>-800.8400794999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.0</v>
+      </c>
+      <c r="B3">
+        <v>1269.0388910999998</v>
+      </c>
+      <c r="C3">
+        <v>-1000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.0</v>
+      </c>
+      <c r="B4">
+        <v>1451.6514676</v>
+      </c>
+      <c r="C4">
+        <v>-1000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0.0</v>
+      </c>
+      <c r="B5">
+        <v>1500.0</v>
+      </c>
+      <c r="C5">
+        <v>-821.0829032999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0.0</v>
+      </c>
+      <c r="B6">
+        <v>1427.2594397</v>
+      </c>
+      <c r="C6">
+        <v>-1000.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>0.0</v>
+      </c>
+      <c r="B7">
+        <v>1482.7327608</v>
+      </c>
+      <c r="C7">
+        <v>-1000.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>0.0</v>
+      </c>
+      <c r="B8">
+        <v>1389.9765420899998</v>
+      </c>
+      <c r="C8">
+        <v>-1000.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>0.0</v>
+      </c>
+      <c r="B9">
+        <v>-458.1222994</v>
+      </c>
+      <c r="C9">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>0.0</v>
+      </c>
+      <c r="B10">
+        <v>-383.6153832999999</v>
+      </c>
+      <c r="C10">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0.0</v>
+      </c>
+      <c r="B11">
+        <v>-550.1164549599999</v>
+      </c>
+      <c r="C11">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>0.0</v>
+      </c>
+      <c r="B12">
+        <v>-150.55800987333265</v>
+      </c>
+      <c r="C12">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>0.0</v>
+      </c>
+      <c r="B13">
+        <v>-258.12726845999987</v>
+      </c>
+      <c r="C13">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>0.0</v>
+      </c>
+      <c r="B14">
+        <v>-98.95742249999995</v>
+      </c>
+      <c r="C14">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>0.0</v>
+      </c>
+      <c r="B15">
+        <v>-277.3311067999999</v>
+      </c>
+      <c r="C15">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>0.0</v>
+      </c>
+      <c r="B16">
+        <v>-545.7099435133337</v>
+      </c>
+      <c r="C16">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0.0</v>
+      </c>
+      <c r="B17">
+        <v>-383.50228449999986</v>
+      </c>
+      <c r="C17">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0.0</v>
+      </c>
+      <c r="B18">
+        <v>-272.14197635000005</v>
+      </c>
+      <c r="C18">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0.0</v>
+      </c>
+      <c r="B19">
+        <v>-606.0287254</v>
+      </c>
+      <c r="C19">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0.0</v>
+      </c>
+      <c r="B20">
+        <v>-432.13522709999995</v>
+      </c>
+      <c r="C20">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0.0</v>
+      </c>
+      <c r="B21">
+        <v>-443.9373868999999</v>
+      </c>
+      <c r="C21">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0.0</v>
+      </c>
+      <c r="B22">
+        <v>-561.4155282999999</v>
+      </c>
+      <c r="C22">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>0.0</v>
+      </c>
+      <c r="B23">
+        <v>1500.0</v>
+      </c>
+      <c r="C23">
+        <v>-974.9705451000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>0.0</v>
+      </c>
+      <c r="B24">
+        <v>1449.7322991</v>
+      </c>
+      <c r="C24">
+        <v>-1000.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>0.0</v>
+      </c>
+      <c r="B25">
+        <v>1430.0892583</v>
+      </c>
+      <c r="C25">
+        <v>-1000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>-1500.0</v>
+      </c>
+      <c r="B2">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <v>1191.5300794999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>-1269.0388910999998</v>
+      </c>
+      <c r="B3">
+        <v>0.0</v>
+      </c>
+      <c r="C3">
+        <v>1153.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>-1451.6514676</v>
+      </c>
+      <c r="B4">
+        <v>0.0</v>
+      </c>
+      <c r="C4">
+        <v>1241.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>-1500.0</v>
+      </c>
+      <c r="B5">
+        <v>0.0</v>
+      </c>
+      <c r="C5">
+        <v>1165.1229032999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>-1427.2594397</v>
+      </c>
+      <c r="B6">
+        <v>0.0</v>
+      </c>
+      <c r="C6">
+        <v>1250.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>-1482.7327608</v>
+      </c>
+      <c r="B7">
+        <v>0.0</v>
+      </c>
+      <c r="C7">
+        <v>1241.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>-1389.9765420899998</v>
+      </c>
+      <c r="B8">
+        <v>0.0</v>
+      </c>
+      <c r="C8">
+        <v>1313.8200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>458.1222994</v>
+      </c>
+      <c r="B9">
+        <v>0.0</v>
+      </c>
+      <c r="C9">
+        <v>-635.3000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>383.6153832999999</v>
+      </c>
+      <c r="B10">
+        <v>0.0</v>
+      </c>
+      <c r="C10">
+        <v>-446.04999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>550.1164549599999</v>
+      </c>
+      <c r="B11">
+        <v>0.0</v>
+      </c>
+      <c r="C11">
+        <v>-704.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>150.55800987333265</v>
+      </c>
+      <c r="B12">
+        <v>0.0</v>
+      </c>
+      <c r="C12">
+        <v>-440.21000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>258.12726845999987</v>
+      </c>
+      <c r="B13">
+        <v>0.0</v>
+      </c>
+      <c r="C13">
+        <v>-556.8399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>98.95742249999995</v>
+      </c>
+      <c r="B14">
+        <v>0.0</v>
+      </c>
+      <c r="C14">
+        <v>-446.04999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>277.3311067999999</v>
+      </c>
+      <c r="B15">
+        <v>0.0</v>
+      </c>
+      <c r="C15">
+        <v>-446.04999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>545.7099435133337</v>
+      </c>
+      <c r="B16">
+        <v>0.0</v>
+      </c>
+      <c r="C16">
+        <v>-566.1600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>383.50228449999986</v>
+      </c>
+      <c r="B17">
+        <v>0.0</v>
+      </c>
+      <c r="C17">
+        <v>-457.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>272.14197635000005</v>
+      </c>
+      <c r="B18">
+        <v>0.0</v>
+      </c>
+      <c r="C18">
+        <v>-422.71999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>606.0287254</v>
+      </c>
+      <c r="B19">
+        <v>0.0</v>
+      </c>
+      <c r="C19">
+        <v>-597.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>432.13522709999995</v>
+      </c>
+      <c r="B20">
+        <v>0.0</v>
+      </c>
+      <c r="C20">
+        <v>-544.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>443.9373868999999</v>
+      </c>
+      <c r="B21">
+        <v>0.0</v>
+      </c>
+      <c r="C21">
+        <v>-613.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>561.4155282999999</v>
+      </c>
+      <c r="B22">
+        <v>0.0</v>
+      </c>
+      <c r="C22">
+        <v>-633.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>-1500.0</v>
+      </c>
+      <c r="B23">
+        <v>0.0</v>
+      </c>
+      <c r="C23">
+        <v>1230.1605451000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>-1449.7322991</v>
+      </c>
+      <c r="B24">
+        <v>0.0</v>
+      </c>
+      <c r="C24">
+        <v>1340.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>-1430.0892583</v>
+      </c>
+      <c r="B25">
+        <v>0.0</v>
+      </c>
+      <c r="C25">
+        <v>1153.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>800.8400794999998</v>
+      </c>
+      <c r="B2">
+        <v>-1191.5300794999998</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1000.0</v>
+      </c>
+      <c r="B3">
+        <v>-1153.62</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1000.0</v>
+      </c>
+      <c r="B4">
+        <v>-1241.72</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>821.0829032999998</v>
+      </c>
+      <c r="B5">
+        <v>-1165.1229032999997</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1000.0</v>
+      </c>
+      <c r="B6">
+        <v>-1250.21</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1000.0</v>
+      </c>
+      <c r="B7">
+        <v>-1241.72</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1000.0</v>
+      </c>
+      <c r="B8">
+        <v>-1313.8200000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>-1000.0</v>
+      </c>
+      <c r="B9">
+        <v>635.3000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>-1000.0</v>
+      </c>
+      <c r="B10">
+        <v>446.04999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>-1000.0</v>
+      </c>
+      <c r="B11">
+        <v>704.84</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>-1000.0</v>
+      </c>
+      <c r="B12">
+        <v>440.21000000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>-1000.0</v>
+      </c>
+      <c r="B13">
+        <v>556.8399999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>-1000.0</v>
+      </c>
+      <c r="B14">
+        <v>446.04999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>-1000.0</v>
+      </c>
+      <c r="B15">
+        <v>446.04999999999995</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>-1000.0</v>
+      </c>
+      <c r="B16">
+        <v>566.1600000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>-1000.0</v>
+      </c>
+      <c r="B17">
+        <v>457.7</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>-1000.0</v>
+      </c>
+      <c r="B18">
+        <v>422.71999999999986</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>-1000.0</v>
+      </c>
+      <c r="B19">
+        <v>597.13</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>-1000.0</v>
+      </c>
+      <c r="B20">
+        <v>544.12</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>-1000.0</v>
+      </c>
+      <c r="B21">
+        <v>613.23</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>-1000.0</v>
+      </c>
+      <c r="B22">
+        <v>633.38</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>974.9705451000002</v>
+      </c>
+      <c r="B23">
+        <v>-1230.1605451000003</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1000.0</v>
+      </c>
+      <c r="B24">
+        <v>-1340.53</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1000.0</v>
+      </c>
+      <c r="B25">
+        <v>-1153.62</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -864,7 +2307,7 @@
         <v>300.0</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>51.96621024000001</v>
       </c>
       <c r="L2">
         <v>40.0</v>
@@ -937,7 +2380,7 @@
         <v>400.0</v>
       </c>
       <c r="J4">
-        <v>300.0</v>
+        <v>240.44548330999987</v>
       </c>
       <c r="K4">
         <v>0.0</v>
@@ -966,7 +2409,7 @@
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>49.14506415000028</v>
       </c>
       <c r="H5">
         <v>400.0</v>
@@ -1013,7 +2456,7 @@
         <v>400.0</v>
       </c>
       <c r="J6">
-        <v>300.0</v>
+        <v>230.51088991000006</v>
       </c>
       <c r="K6">
         <v>0.0</v>
@@ -1051,7 +2494,7 @@
         <v>400.0</v>
       </c>
       <c r="J7">
-        <v>300.0</v>
+        <v>159.03647945000012</v>
       </c>
       <c r="K7">
         <v>0.0</v>
@@ -1115,10 +2558,10 @@
         <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>22.875819660000047</v>
       </c>
       <c r="H9">
         <v>400.0</v>
@@ -1130,7 +2573,7 @@
         <v>300.0</v>
       </c>
       <c r="K9">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L9">
         <v>0.0</v>
@@ -1153,10 +2596,10 @@
         <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H10">
         <v>400.0</v>
@@ -1168,7 +2611,7 @@
         <v>300.0</v>
       </c>
       <c r="K10">
-        <v>0.0</v>
+        <v>297.44208022000015</v>
       </c>
       <c r="L10">
         <v>0.0</v>
@@ -1191,10 +2634,10 @@
         <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H11">
         <v>400.0</v>
@@ -1206,7 +2649,7 @@
         <v>300.0</v>
       </c>
       <c r="K11">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L11">
         <v>0.0</v>
@@ -1232,10 +2675,10 @@
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H12">
-        <v>294.5751309299999</v>
+        <v>400.0</v>
       </c>
       <c r="I12">
         <v>400.0</v>
@@ -1244,7 +2687,7 @@
         <v>300.0</v>
       </c>
       <c r="K12">
-        <v>0.0</v>
+        <v>169.04831745666723</v>
       </c>
       <c r="L12">
         <v>0.0</v>
@@ -1267,10 +2710,10 @@
         <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H13">
         <v>400.0</v>
@@ -1282,7 +2725,7 @@
         <v>300.0</v>
       </c>
       <c r="K13">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L13">
         <v>0.0</v>
@@ -1305,10 +2748,10 @@
         <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H14">
         <v>400.0</v>
@@ -1320,10 +2763,10 @@
         <v>300.0</v>
       </c>
       <c r="K14">
-        <v>113.49286595000012</v>
+        <v>310.0</v>
       </c>
       <c r="L14">
-        <v>0.0</v>
+        <v>148.80056095000015</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1343,10 +2786,10 @@
         <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G15">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H15">
         <v>400.0</v>
@@ -1358,10 +2801,10 @@
         <v>300.0</v>
       </c>
       <c r="K15">
-        <v>4.629943099999991</v>
+        <v>310.0</v>
       </c>
       <c r="L15">
-        <v>0.0</v>
+        <v>32.515988100000015</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1384,7 +2827,7 @@
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H16">
         <v>400.0</v>
@@ -1396,7 +2839,7 @@
         <v>300.0</v>
       </c>
       <c r="K16">
-        <v>0.0</v>
+        <v>210.97734712666636</v>
       </c>
       <c r="L16">
         <v>0.0</v>
@@ -1422,7 +2865,7 @@
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H17">
         <v>400.0</v>
@@ -1434,7 +2877,7 @@
         <v>300.0</v>
       </c>
       <c r="K17">
-        <v>0.0</v>
+        <v>227.4803506300002</v>
       </c>
       <c r="L17">
         <v>0.0</v>
@@ -1457,10 +2900,10 @@
         <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G18">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H18">
         <v>400.0</v>
@@ -1472,7 +2915,7 @@
         <v>300.0</v>
       </c>
       <c r="K18">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L18">
         <v>0.0</v>
@@ -1495,13 +2938,13 @@
         <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>116.47809198000004</v>
       </c>
       <c r="G19">
         <v>0.0</v>
       </c>
       <c r="H19">
-        <v>361.15426198</v>
+        <v>400.0</v>
       </c>
       <c r="I19">
         <v>400.0</v>
@@ -1533,10 +2976,10 @@
         <v>0.0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G20">
-        <v>30.371187680000276</v>
+        <v>155.0</v>
       </c>
       <c r="H20">
         <v>400.0</v>
@@ -1548,10 +2991,10 @@
         <v>300.0</v>
       </c>
       <c r="K20">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L20">
-        <v>0.0</v>
+        <v>97.44880267999997</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1571,10 +3014,10 @@
         <v>0.0</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G21">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="H21">
         <v>400.0</v>
@@ -1586,10 +3029,10 @@
         <v>300.0</v>
       </c>
       <c r="K21">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L21">
-        <v>0.0</v>
+        <v>25.07235448</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1624,7 +3067,7 @@
         <v>300.0</v>
       </c>
       <c r="K22">
-        <v>0.0</v>
+        <v>273.61553550999986</v>
       </c>
       <c r="L22">
         <v>0.0</v>
@@ -1647,10 +3090,10 @@
         <v>0.0</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="G23">
-        <v>0.0</v>
+        <v>51.72281032000001</v>
       </c>
       <c r="H23">
         <v>400.0</v>
@@ -1662,7 +3105,7 @@
         <v>300.0</v>
       </c>
       <c r="K23">
-        <v>0.0</v>
+        <v>310.0</v>
       </c>
       <c r="L23">
         <v>0.0</v>
@@ -1688,7 +3131,7 @@
         <v>155.0</v>
       </c>
       <c r="G24">
-        <v>0.9546881000003395</v>
+        <v>152.9864281</v>
       </c>
       <c r="H24">
         <v>400.0</v>
@@ -1735,7 +3178,7 @@
         <v>400.0</v>
       </c>
       <c r="J25">
-        <v>300.0</v>
+        <v>175.97681493000005</v>
       </c>
       <c r="K25">
         <v>0.0</v>
@@ -1749,7 +3192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -1818,49 +3261,49 @@
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>111.877605</v>
+        <v>111.88</v>
       </c>
       <c r="D2">
-        <v>46.17171</v>
+        <v>46.17</v>
       </c>
       <c r="E2">
-        <v>44.395875</v>
+        <v>44.4</v>
       </c>
       <c r="F2">
-        <v>85.24008</v>
+        <v>85.24</v>
       </c>
       <c r="G2">
-        <v>78.13674</v>
+        <v>78.14</v>
       </c>
       <c r="H2">
-        <v>106.5501</v>
+        <v>106.55</v>
       </c>
       <c r="I2">
-        <v>108.325935</v>
+        <v>108.33</v>
       </c>
       <c r="J2">
-        <v>120.75678</v>
+        <v>120.76</v>
       </c>
       <c r="K2">
-        <v>165.152655</v>
+        <v>165.15</v>
       </c>
       <c r="L2">
-        <v>120.75678</v>
+        <v>120.76</v>
       </c>
       <c r="M2">
         <v>0.0</v>
       </c>
       <c r="N2">
-        <v>62.154225</v>
+        <v>62.15</v>
       </c>
       <c r="O2">
         <v>0.0</v>
       </c>
       <c r="P2">
-        <v>113.65344</v>
+        <v>113.65</v>
       </c>
       <c r="Q2">
-        <v>79.912575</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1868,22 +3311,22 @@
         <v>0.0</v>
       </c>
       <c r="B3">
-        <v>60.37839</v>
+        <v>56.77</v>
       </c>
       <c r="C3">
-        <v>111.877605</v>
+        <v>105.2</v>
       </c>
       <c r="D3">
-        <v>46.17171</v>
+        <v>43.42</v>
       </c>
       <c r="E3">
-        <v>44.395875</v>
+        <v>41.75</v>
       </c>
       <c r="F3">
-        <v>85.24008</v>
+        <v>80.15</v>
       </c>
       <c r="G3">
-        <v>78.13674</v>
+        <v>73.47</v>
       </c>
       <c r="H3">
         <v>0.0</v>
@@ -1895,25 +3338,25 @@
         <v>0.0</v>
       </c>
       <c r="K3">
-        <v>165.152655</v>
+        <v>155.29</v>
       </c>
       <c r="L3">
-        <v>120.75678</v>
+        <v>113.55</v>
       </c>
       <c r="M3">
-        <v>197.117685</v>
+        <v>185.35</v>
       </c>
       <c r="N3">
-        <v>62.154225</v>
+        <v>58.44</v>
       </c>
       <c r="O3">
-        <v>207.772695</v>
+        <v>195.37</v>
       </c>
       <c r="P3">
-        <v>113.65344</v>
+        <v>106.87</v>
       </c>
       <c r="Q3">
-        <v>79.912575</v>
+        <v>75.14</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1921,25 +3364,25 @@
         <v>0.0</v>
       </c>
       <c r="B4">
-        <v>60.37839</v>
+        <v>54.07</v>
       </c>
       <c r="C4">
-        <v>111.877605</v>
+        <v>100.19</v>
       </c>
       <c r="D4">
-        <v>46.17171</v>
+        <v>41.35</v>
       </c>
       <c r="E4">
-        <v>44.395875</v>
+        <v>39.76</v>
       </c>
       <c r="F4">
-        <v>85.24008</v>
+        <v>76.33</v>
       </c>
       <c r="G4">
-        <v>78.13674</v>
+        <v>69.97</v>
       </c>
       <c r="H4">
-        <v>106.5501</v>
+        <v>95.42</v>
       </c>
       <c r="I4">
         <v>0.0</v>
@@ -1948,69 +3391,69 @@
         <v>0.0</v>
       </c>
       <c r="K4">
-        <v>165.152655</v>
+        <v>147.9</v>
       </c>
       <c r="L4">
-        <v>120.75678</v>
+        <v>108.14</v>
       </c>
       <c r="M4">
-        <v>197.117685</v>
+        <v>176.52</v>
       </c>
       <c r="N4">
-        <v>62.154225</v>
+        <v>55.66</v>
       </c>
       <c r="O4">
         <v>0.0</v>
       </c>
       <c r="P4">
-        <v>113.65344</v>
+        <v>101.78</v>
       </c>
       <c r="Q4">
-        <v>79.912575</v>
+        <v>71.56</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>67.48173</v>
+        <v>59.42</v>
       </c>
       <c r="B5">
-        <v>60.37839</v>
+        <v>53.17</v>
       </c>
       <c r="C5">
-        <v>111.877605</v>
+        <v>98.52</v>
       </c>
       <c r="D5">
-        <v>46.17171</v>
+        <v>40.66</v>
       </c>
       <c r="E5">
-        <v>44.395875</v>
+        <v>39.09</v>
       </c>
       <c r="F5">
-        <v>85.24008</v>
+        <v>75.06</v>
       </c>
       <c r="G5">
-        <v>78.13674</v>
+        <v>68.81</v>
       </c>
       <c r="H5">
-        <v>106.5501</v>
+        <v>93.83</v>
       </c>
       <c r="I5">
-        <v>108.325935</v>
+        <v>95.39</v>
       </c>
       <c r="J5">
-        <v>120.75678</v>
+        <v>106.34</v>
       </c>
       <c r="K5">
-        <v>165.152655</v>
+        <v>145.43</v>
       </c>
       <c r="L5">
-        <v>120.75678</v>
+        <v>106.34</v>
       </c>
       <c r="M5">
-        <v>197.117685</v>
+        <v>173.58</v>
       </c>
       <c r="N5">
-        <v>62.154225</v>
+        <v>54.73</v>
       </c>
       <c r="O5">
         <v>0.0</v>
@@ -2019,224 +3462,224 @@
         <v>0.0</v>
       </c>
       <c r="Q5">
-        <v>79.912575</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>67.48173</v>
+        <v>59.42</v>
       </c>
       <c r="B6">
-        <v>60.37839</v>
+        <v>53.17</v>
       </c>
       <c r="C6">
         <v>0.0</v>
       </c>
       <c r="D6">
-        <v>46.17171</v>
+        <v>40.66</v>
       </c>
       <c r="E6">
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>85.24008</v>
+        <v>75.06</v>
       </c>
       <c r="G6">
-        <v>78.13674</v>
+        <v>68.81</v>
       </c>
       <c r="H6">
         <v>0.0</v>
       </c>
       <c r="I6">
-        <v>108.325935</v>
+        <v>95.39</v>
       </c>
       <c r="J6">
-        <v>120.75678</v>
+        <v>106.34</v>
       </c>
       <c r="K6">
         <v>0.0</v>
       </c>
       <c r="L6">
-        <v>120.75678</v>
+        <v>106.34</v>
       </c>
       <c r="M6">
-        <v>197.117685</v>
+        <v>173.58</v>
       </c>
       <c r="N6">
-        <v>62.154225</v>
+        <v>54.73</v>
       </c>
       <c r="O6">
-        <v>207.772695</v>
+        <v>182.96</v>
       </c>
       <c r="P6">
-        <v>113.65344</v>
+        <v>100.08</v>
       </c>
       <c r="Q6">
-        <v>79.912575</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>67.48173</v>
+        <v>60.43</v>
       </c>
       <c r="B7">
         <v>0.0</v>
       </c>
       <c r="C7">
-        <v>111.877605</v>
+        <v>100.19</v>
       </c>
       <c r="D7">
-        <v>46.17171</v>
+        <v>41.35</v>
       </c>
       <c r="E7">
-        <v>44.395875</v>
+        <v>39.76</v>
       </c>
       <c r="F7">
-        <v>85.24008</v>
+        <v>76.33</v>
       </c>
       <c r="G7">
-        <v>78.13674</v>
+        <v>69.97</v>
       </c>
       <c r="H7">
-        <v>106.5501</v>
+        <v>95.42</v>
       </c>
       <c r="I7">
-        <v>108.325935</v>
+        <v>97.01</v>
       </c>
       <c r="J7">
         <v>0.0</v>
       </c>
       <c r="K7">
-        <v>165.152655</v>
+        <v>147.9</v>
       </c>
       <c r="L7">
-        <v>120.75678</v>
+        <v>108.14</v>
       </c>
       <c r="M7">
-        <v>197.117685</v>
+        <v>176.52</v>
       </c>
       <c r="N7">
-        <v>62.154225</v>
+        <v>55.66</v>
       </c>
       <c r="O7">
         <v>0.0</v>
       </c>
       <c r="P7">
-        <v>7.929825549999919</v>
+        <v>0.0</v>
       </c>
       <c r="Q7">
-        <v>79.912575</v>
+        <v>71.56</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>67.48173</v>
+        <v>74.53</v>
       </c>
       <c r="B8">
-        <v>60.37839</v>
+        <v>66.69</v>
       </c>
       <c r="C8">
         <v>0.0</v>
       </c>
       <c r="D8">
-        <v>46.17171</v>
+        <v>51.0</v>
       </c>
       <c r="E8">
-        <v>44.395875</v>
+        <v>49.03</v>
       </c>
       <c r="F8">
-        <v>85.24008</v>
+        <v>94.15</v>
       </c>
       <c r="G8">
-        <v>78.13674</v>
+        <v>86.3</v>
       </c>
       <c r="H8">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I8">
         <v>0.0</v>
       </c>
       <c r="J8">
-        <v>120.75678</v>
+        <v>133.37</v>
       </c>
       <c r="K8">
-        <v>6.28141028999994</v>
+        <v>0.0</v>
       </c>
       <c r="L8">
-        <v>120.75678</v>
+        <v>133.37</v>
       </c>
       <c r="M8">
-        <v>197.117685</v>
+        <v>217.71</v>
       </c>
       <c r="N8">
         <v>0.0</v>
       </c>
       <c r="O8">
-        <v>207.772695</v>
+        <v>229.48</v>
       </c>
       <c r="P8">
-        <v>113.65344</v>
+        <v>125.53</v>
       </c>
       <c r="Q8">
-        <v>79.912575</v>
+        <v>88.26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>67.48173</v>
+        <v>86.62</v>
       </c>
       <c r="B9">
         <v>0.0</v>
       </c>
       <c r="C9">
-        <v>111.877605</v>
+        <v>143.6</v>
       </c>
       <c r="D9">
-        <v>46.17171</v>
+        <v>59.27</v>
       </c>
       <c r="E9">
-        <v>44.395875</v>
+        <v>56.99</v>
       </c>
       <c r="F9">
-        <v>85.24008</v>
+        <v>109.41</v>
       </c>
       <c r="G9">
-        <v>78.13674</v>
+        <v>100.29</v>
       </c>
       <c r="H9">
         <v>0.0</v>
       </c>
       <c r="I9">
-        <v>108.325935</v>
+        <v>139.05</v>
       </c>
       <c r="J9">
-        <v>120.75678</v>
+        <v>155.0</v>
       </c>
       <c r="K9">
-        <v>165.152655</v>
+        <v>211.99</v>
       </c>
       <c r="L9">
-        <v>120.75678</v>
+        <v>155.0</v>
       </c>
       <c r="M9">
-        <v>197.117685</v>
+        <v>253.02</v>
       </c>
       <c r="N9">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O9">
-        <v>207.772695</v>
+        <v>266.69</v>
       </c>
       <c r="P9">
-        <v>113.65344</v>
+        <v>145.88</v>
       </c>
       <c r="Q9">
-        <v>79.912575</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>67.48173</v>
+        <v>95.68</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -2245,66 +3688,66 @@
         <v>0.0</v>
       </c>
       <c r="D10">
-        <v>46.17171</v>
+        <v>65.47</v>
       </c>
       <c r="E10">
-        <v>44.395875</v>
+        <v>62.95</v>
       </c>
       <c r="F10">
-        <v>85.24008</v>
+        <v>120.86</v>
       </c>
       <c r="G10">
-        <v>78.13674</v>
+        <v>110.79</v>
       </c>
       <c r="H10">
-        <v>106.5501</v>
+        <v>151.08</v>
       </c>
       <c r="I10">
         <v>0.0</v>
       </c>
       <c r="J10">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="K10">
-        <v>165.152655</v>
+        <v>234.17</v>
       </c>
       <c r="L10">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="M10">
-        <v>197.117685</v>
+        <v>279.5</v>
       </c>
       <c r="N10">
-        <v>62.154225</v>
+        <v>88.13</v>
       </c>
       <c r="O10">
-        <v>207.772695</v>
+        <v>294.6</v>
       </c>
       <c r="P10">
         <v>0.0</v>
       </c>
       <c r="Q10">
-        <v>79.912575</v>
+        <v>113.31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>67.48173</v>
+        <v>96.69</v>
       </c>
       <c r="B11">
-        <v>60.37839</v>
+        <v>86.51</v>
       </c>
       <c r="C11">
-        <v>14.908957626664403</v>
+        <v>0.0</v>
       </c>
       <c r="D11">
-        <v>46.17171</v>
+        <v>66.16</v>
       </c>
       <c r="E11">
-        <v>44.395875</v>
+        <v>63.61</v>
       </c>
       <c r="F11">
-        <v>85.24008</v>
+        <v>122.14</v>
       </c>
       <c r="G11">
         <v>0.0</v>
@@ -2313,63 +3756,63 @@
         <v>0.0</v>
       </c>
       <c r="I11">
-        <v>108.325935</v>
+        <v>155.21</v>
       </c>
       <c r="J11">
-        <v>120.75678</v>
+        <v>173.02</v>
       </c>
       <c r="K11">
-        <v>165.152655</v>
+        <v>236.64</v>
       </c>
       <c r="L11">
-        <v>120.75678</v>
+        <v>173.02</v>
       </c>
       <c r="M11">
-        <v>197.117685</v>
+        <v>282.44</v>
       </c>
       <c r="N11">
-        <v>62.154225</v>
+        <v>89.06</v>
       </c>
       <c r="O11">
-        <v>207.772695</v>
+        <v>297.7</v>
       </c>
       <c r="P11">
-        <v>113.65344</v>
+        <v>162.85</v>
       </c>
       <c r="Q11">
-        <v>79.912575</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>67.48173</v>
+        <v>96.69</v>
       </c>
       <c r="B12">
-        <v>60.37839</v>
+        <v>86.51</v>
       </c>
       <c r="C12">
-        <v>111.877605</v>
+        <v>160.3</v>
       </c>
       <c r="D12">
-        <v>46.17171</v>
+        <v>66.16</v>
       </c>
       <c r="E12">
-        <v>44.395875</v>
+        <v>63.61</v>
       </c>
       <c r="F12">
-        <v>85.24008</v>
+        <v>122.14</v>
       </c>
       <c r="G12">
-        <v>78.13674</v>
+        <v>111.96</v>
       </c>
       <c r="H12">
-        <v>106.5501</v>
+        <v>152.67</v>
       </c>
       <c r="I12">
         <v>0.0</v>
       </c>
       <c r="J12">
-        <v>120.75678</v>
+        <v>173.02</v>
       </c>
       <c r="K12">
         <v>0.0</v>
@@ -2381,27 +3824,27 @@
         <v>0.0</v>
       </c>
       <c r="N12">
-        <v>62.154225</v>
+        <v>89.06</v>
       </c>
       <c r="O12">
-        <v>207.772695</v>
+        <v>297.7</v>
       </c>
       <c r="P12">
-        <v>113.65344</v>
+        <v>162.85</v>
       </c>
       <c r="Q12">
-        <v>79.912575</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>67.48173</v>
+        <v>95.68</v>
       </c>
       <c r="B13">
-        <v>60.37839</v>
+        <v>85.61</v>
       </c>
       <c r="C13">
-        <v>111.877605</v>
+        <v>158.63</v>
       </c>
       <c r="D13">
         <v>0.0</v>
@@ -2410,154 +3853,154 @@
         <v>0.0</v>
       </c>
       <c r="F13">
-        <v>85.24008</v>
+        <v>120.86</v>
       </c>
       <c r="G13">
         <v>0.0</v>
       </c>
       <c r="H13">
-        <v>106.5501</v>
+        <v>151.08</v>
       </c>
       <c r="I13">
-        <v>108.325935</v>
+        <v>153.6</v>
       </c>
       <c r="J13">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="K13">
-        <v>165.152655</v>
+        <v>234.17</v>
       </c>
       <c r="L13">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="M13">
         <v>0.0</v>
       </c>
       <c r="N13">
-        <v>62.154225</v>
+        <v>88.13</v>
       </c>
       <c r="O13">
-        <v>207.772695</v>
+        <v>294.6</v>
       </c>
       <c r="P13">
-        <v>113.65344</v>
+        <v>161.15</v>
       </c>
       <c r="Q13">
-        <v>79.912575</v>
+        <v>113.31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>67.48173</v>
+        <v>95.68</v>
       </c>
       <c r="B14">
-        <v>60.37839</v>
+        <v>85.61</v>
       </c>
       <c r="C14">
-        <v>111.877605</v>
+        <v>158.63</v>
       </c>
       <c r="D14">
-        <v>46.17171</v>
+        <v>65.47</v>
       </c>
       <c r="E14">
-        <v>44.395875</v>
+        <v>62.95</v>
       </c>
       <c r="F14">
-        <v>85.24008</v>
+        <v>120.86</v>
       </c>
       <c r="G14">
-        <v>78.13674</v>
+        <v>110.79</v>
       </c>
       <c r="H14">
-        <v>106.5501</v>
+        <v>151.08</v>
       </c>
       <c r="I14">
-        <v>108.325935</v>
+        <v>153.6</v>
       </c>
       <c r="J14">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="K14">
-        <v>165.152655</v>
+        <v>234.17</v>
       </c>
       <c r="L14">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="M14">
-        <v>197.117685</v>
+        <v>279.5</v>
       </c>
       <c r="N14">
-        <v>62.154225</v>
+        <v>88.13</v>
       </c>
       <c r="O14">
         <v>0.0</v>
       </c>
       <c r="P14">
-        <v>113.65344</v>
+        <v>161.15</v>
       </c>
       <c r="Q14">
-        <v>79.912575</v>
+        <v>113.31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>67.48173</v>
+        <v>95.68</v>
       </c>
       <c r="B15">
         <v>0.0</v>
       </c>
       <c r="C15">
-        <v>111.877605</v>
+        <v>158.63</v>
       </c>
       <c r="D15">
-        <v>46.17171</v>
+        <v>65.47</v>
       </c>
       <c r="E15">
-        <v>44.395875</v>
+        <v>62.95</v>
       </c>
       <c r="F15">
-        <v>85.24008</v>
+        <v>120.86</v>
       </c>
       <c r="G15">
-        <v>78.13674</v>
+        <v>110.79</v>
       </c>
       <c r="H15">
-        <v>106.5501</v>
+        <v>151.08</v>
       </c>
       <c r="I15">
-        <v>108.325935</v>
+        <v>153.6</v>
       </c>
       <c r="J15">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="K15">
         <v>0.0</v>
       </c>
       <c r="L15">
-        <v>120.75678</v>
+        <v>171.22</v>
       </c>
       <c r="M15">
-        <v>197.117685</v>
+        <v>279.5</v>
       </c>
       <c r="N15">
-        <v>62.154225</v>
+        <v>88.13</v>
       </c>
       <c r="O15">
-        <v>207.772695</v>
+        <v>294.6</v>
       </c>
       <c r="P15">
-        <v>113.65344</v>
+        <v>161.15</v>
       </c>
       <c r="Q15">
-        <v>79.912575</v>
+        <v>113.31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>67.48173</v>
+        <v>93.67</v>
       </c>
       <c r="B16">
-        <v>60.37839</v>
+        <v>83.81</v>
       </c>
       <c r="C16">
         <v>0.0</v>
@@ -2566,84 +4009,84 @@
         <v>0.0</v>
       </c>
       <c r="E16">
-        <v>44.395875</v>
+        <v>61.62</v>
       </c>
       <c r="F16">
-        <v>85.24008</v>
+        <v>118.32</v>
       </c>
       <c r="G16">
         <v>0.0</v>
       </c>
       <c r="H16">
-        <v>106.5501</v>
+        <v>147.9</v>
       </c>
       <c r="I16">
-        <v>108.325935</v>
+        <v>150.36</v>
       </c>
       <c r="J16">
-        <v>120.75678</v>
+        <v>167.62</v>
       </c>
       <c r="K16">
         <v>0.0</v>
       </c>
       <c r="L16">
-        <v>120.75678</v>
+        <v>167.62</v>
       </c>
       <c r="M16">
-        <v>197.117685</v>
+        <v>273.61</v>
       </c>
       <c r="N16">
-        <v>62.154225</v>
+        <v>86.27</v>
       </c>
       <c r="O16">
-        <v>207.772695</v>
+        <v>288.4</v>
       </c>
       <c r="P16">
-        <v>113.65344</v>
+        <v>157.76</v>
       </c>
       <c r="Q16">
-        <v>79.912575</v>
+        <v>110.92</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>67.48173</v>
+        <v>93.67</v>
       </c>
       <c r="B17">
-        <v>60.37839</v>
+        <v>83.81</v>
       </c>
       <c r="C17">
         <v>0.0</v>
       </c>
       <c r="D17">
-        <v>46.17171</v>
+        <v>64.09</v>
       </c>
       <c r="E17">
-        <v>44.395875</v>
+        <v>61.62</v>
       </c>
       <c r="F17">
-        <v>85.24008</v>
+        <v>118.32</v>
       </c>
       <c r="G17">
-        <v>78.13674</v>
+        <v>108.46</v>
       </c>
       <c r="H17">
-        <v>106.5501</v>
+        <v>147.9</v>
       </c>
       <c r="I17">
         <v>0.0</v>
       </c>
       <c r="J17">
-        <v>120.75678</v>
+        <v>167.62</v>
       </c>
       <c r="K17">
-        <v>165.152655</v>
+        <v>229.24</v>
       </c>
       <c r="L17">
-        <v>120.75678</v>
+        <v>167.62</v>
       </c>
       <c r="M17">
-        <v>197.117685</v>
+        <v>273.61</v>
       </c>
       <c r="N17">
         <v>0.0</v>
@@ -2652,92 +4095,92 @@
         <v>0.0</v>
       </c>
       <c r="P17">
-        <v>113.65344</v>
+        <v>157.76</v>
       </c>
       <c r="Q17">
-        <v>79.912575</v>
+        <v>110.92</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>67.48173</v>
+        <v>99.71</v>
       </c>
       <c r="B18">
-        <v>60.37839</v>
+        <v>89.22</v>
       </c>
       <c r="C18">
         <v>0.0</v>
       </c>
       <c r="D18">
-        <v>46.17171</v>
+        <v>68.22</v>
       </c>
       <c r="E18">
-        <v>44.395875</v>
+        <v>65.6</v>
       </c>
       <c r="F18">
-        <v>85.24008</v>
+        <v>125.95</v>
       </c>
       <c r="G18">
-        <v>78.13674</v>
+        <v>115.46</v>
       </c>
       <c r="H18">
-        <v>106.5501</v>
+        <v>157.44</v>
       </c>
       <c r="I18">
-        <v>108.325935</v>
+        <v>160.06</v>
       </c>
       <c r="J18">
-        <v>120.75678</v>
+        <v>178.43</v>
       </c>
       <c r="K18">
         <v>0.0</v>
       </c>
       <c r="L18">
-        <v>120.75678</v>
+        <v>178.43</v>
       </c>
       <c r="M18">
-        <v>197.117685</v>
+        <v>291.26</v>
       </c>
       <c r="N18">
         <v>0.0</v>
       </c>
       <c r="O18">
-        <v>207.772695</v>
+        <v>307.01</v>
       </c>
       <c r="P18">
-        <v>113.65344</v>
+        <v>167.94</v>
       </c>
       <c r="Q18">
-        <v>79.912575</v>
+        <v>118.08</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>67.48173</v>
+        <v>100.72</v>
       </c>
       <c r="B19">
         <v>0.0</v>
       </c>
       <c r="C19">
-        <v>111.877605</v>
+        <v>166.98</v>
       </c>
       <c r="D19">
-        <v>46.17171</v>
+        <v>68.91</v>
       </c>
       <c r="E19">
-        <v>44.395875</v>
+        <v>66.26</v>
       </c>
       <c r="F19">
-        <v>85.24008</v>
+        <v>127.22</v>
       </c>
       <c r="G19">
-        <v>78.13674</v>
+        <v>116.62</v>
       </c>
       <c r="H19">
-        <v>106.5501</v>
+        <v>159.03</v>
       </c>
       <c r="I19">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J19">
         <v>0.0</v>
@@ -2749,198 +4192,198 @@
         <v>0.0</v>
       </c>
       <c r="M19">
-        <v>197.117685</v>
+        <v>294.21</v>
       </c>
       <c r="N19">
         <v>0.0</v>
       </c>
       <c r="O19">
-        <v>207.772695</v>
+        <v>310.11</v>
       </c>
       <c r="P19">
-        <v>113.65344</v>
+        <v>169.63</v>
       </c>
       <c r="Q19">
-        <v>79.912575</v>
+        <v>119.27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20">
-        <v>67.48173</v>
+        <v>100.72</v>
       </c>
       <c r="B20">
         <v>0.0</v>
       </c>
       <c r="C20">
-        <v>111.877605</v>
+        <v>166.98</v>
       </c>
       <c r="D20">
-        <v>46.17171</v>
+        <v>68.91</v>
       </c>
       <c r="E20">
-        <v>44.395875</v>
+        <v>66.26</v>
       </c>
       <c r="F20">
-        <v>85.24008</v>
+        <v>0.0</v>
       </c>
       <c r="G20">
-        <v>78.13674</v>
+        <v>116.62</v>
       </c>
       <c r="H20">
-        <v>106.5501</v>
+        <v>159.03</v>
       </c>
       <c r="I20">
-        <v>108.325935</v>
+        <v>161.68</v>
       </c>
       <c r="J20">
-        <v>120.75678</v>
+        <v>180.23</v>
       </c>
       <c r="K20">
-        <v>165.152655</v>
+        <v>246.5</v>
       </c>
       <c r="L20">
-        <v>120.75678</v>
+        <v>180.23</v>
       </c>
       <c r="M20">
-        <v>197.117685</v>
+        <v>294.21</v>
       </c>
       <c r="N20">
         <v>0.0</v>
       </c>
       <c r="O20">
-        <v>207.772695</v>
+        <v>310.11</v>
       </c>
       <c r="P20">
-        <v>113.65344</v>
+        <v>169.63</v>
       </c>
       <c r="Q20">
-        <v>79.912575</v>
+        <v>119.27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>67.48173</v>
+        <v>96.69</v>
       </c>
       <c r="B21">
-        <v>60.37839</v>
+        <v>86.51</v>
       </c>
       <c r="C21">
-        <v>111.877605</v>
+        <v>160.3</v>
       </c>
       <c r="D21">
-        <v>46.17171</v>
+        <v>66.16</v>
       </c>
       <c r="E21">
-        <v>44.395875</v>
+        <v>63.61</v>
       </c>
       <c r="F21">
-        <v>85.24008</v>
+        <v>122.14</v>
       </c>
       <c r="G21">
-        <v>78.13674</v>
+        <v>111.96</v>
       </c>
       <c r="H21">
-        <v>106.5501</v>
+        <v>152.67</v>
       </c>
       <c r="I21">
-        <v>108.325935</v>
+        <v>155.21</v>
       </c>
       <c r="J21">
         <v>0.0</v>
       </c>
       <c r="K21">
-        <v>165.152655</v>
+        <v>236.64</v>
       </c>
       <c r="L21">
-        <v>120.75678</v>
+        <v>173.02</v>
       </c>
       <c r="M21">
-        <v>197.117685</v>
+        <v>282.44</v>
       </c>
       <c r="N21">
         <v>0.0</v>
       </c>
       <c r="O21">
-        <v>207.772695</v>
+        <v>297.7</v>
       </c>
       <c r="P21">
-        <v>113.65344</v>
+        <v>162.85</v>
       </c>
       <c r="Q21">
-        <v>79.912575</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22">
-        <v>67.48173</v>
+        <v>91.65</v>
       </c>
       <c r="B22">
-        <v>60.37839</v>
+        <v>82.01</v>
       </c>
       <c r="C22">
-        <v>111.877605</v>
+        <v>151.95</v>
       </c>
       <c r="D22">
-        <v>46.17171</v>
+        <v>62.71</v>
       </c>
       <c r="E22">
         <v>0.0</v>
       </c>
       <c r="F22">
-        <v>85.24008</v>
+        <v>115.77</v>
       </c>
       <c r="G22">
-        <v>78.13674</v>
+        <v>106.13</v>
       </c>
       <c r="H22">
-        <v>106.5501</v>
+        <v>144.72</v>
       </c>
       <c r="I22">
-        <v>108.325935</v>
+        <v>147.13</v>
       </c>
       <c r="J22">
         <v>0.0</v>
       </c>
       <c r="K22">
-        <v>165.152655</v>
+        <v>224.31</v>
       </c>
       <c r="L22">
-        <v>120.75678</v>
+        <v>164.01</v>
       </c>
       <c r="M22">
-        <v>197.117685</v>
+        <v>0.0</v>
       </c>
       <c r="N22">
-        <v>62.154225</v>
+        <v>84.42</v>
       </c>
       <c r="O22">
-        <v>207.772695</v>
+        <v>282.2</v>
       </c>
       <c r="P22">
-        <v>113.65344</v>
+        <v>154.37</v>
       </c>
       <c r="Q22">
-        <v>79.912575</v>
+        <v>108.54</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
-        <v>67.48173</v>
+        <v>83.6</v>
       </c>
       <c r="B23">
-        <v>60.37839</v>
+        <v>74.8</v>
       </c>
       <c r="C23">
-        <v>111.877605</v>
+        <v>138.59</v>
       </c>
       <c r="D23">
-        <v>46.17171</v>
+        <v>57.2</v>
       </c>
       <c r="E23">
-        <v>44.395875</v>
+        <v>55.0</v>
       </c>
       <c r="F23">
-        <v>85.24008</v>
+        <v>105.6</v>
       </c>
       <c r="G23">
         <v>0.0</v>
@@ -2949,137 +4392,137 @@
         <v>0.0</v>
       </c>
       <c r="I23">
-        <v>108.325935</v>
+        <v>134.19</v>
       </c>
       <c r="J23">
-        <v>120.75678</v>
+        <v>149.59</v>
       </c>
       <c r="K23">
-        <v>165.152655</v>
+        <v>204.59</v>
       </c>
       <c r="L23">
-        <v>120.75678</v>
+        <v>149.59</v>
       </c>
       <c r="M23">
-        <v>197.117685</v>
+        <v>244.19</v>
       </c>
       <c r="N23">
-        <v>62.154225</v>
+        <v>77.0</v>
       </c>
       <c r="O23">
-        <v>207.772695</v>
+        <v>257.39</v>
       </c>
       <c r="P23">
-        <v>113.65344</v>
+        <v>140.79</v>
       </c>
       <c r="Q23">
-        <v>79.912575</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>67.48173</v>
+        <v>73.52</v>
       </c>
       <c r="B24">
-        <v>60.37839</v>
+        <v>65.79</v>
       </c>
       <c r="C24">
-        <v>111.877605</v>
+        <v>121.9</v>
       </c>
       <c r="D24">
-        <v>46.17171</v>
+        <v>50.31</v>
       </c>
       <c r="E24">
-        <v>44.395875</v>
+        <v>48.37</v>
       </c>
       <c r="F24">
-        <v>85.24008</v>
+        <v>92.87</v>
       </c>
       <c r="G24">
         <v>0.0</v>
       </c>
       <c r="H24">
-        <v>106.5501</v>
+        <v>116.09</v>
       </c>
       <c r="I24">
-        <v>108.325935</v>
+        <v>118.03</v>
       </c>
       <c r="J24">
-        <v>120.75678</v>
+        <v>131.57</v>
       </c>
       <c r="K24">
-        <v>165.152655</v>
+        <v>179.94</v>
       </c>
       <c r="L24">
-        <v>120.75678</v>
+        <v>131.57</v>
       </c>
       <c r="M24">
-        <v>197.117685</v>
+        <v>214.77</v>
       </c>
       <c r="N24">
-        <v>62.154225</v>
+        <v>67.72</v>
       </c>
       <c r="O24">
-        <v>207.772695</v>
+        <v>226.38</v>
       </c>
       <c r="P24">
-        <v>113.65344</v>
+        <v>123.83</v>
       </c>
       <c r="Q24">
-        <v>79.912575</v>
+        <v>87.07</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
-        <v>67.48173</v>
+        <v>63.45</v>
       </c>
       <c r="B25">
-        <v>60.37839</v>
+        <v>56.77</v>
       </c>
       <c r="C25">
-        <v>111.877605</v>
+        <v>105.2</v>
       </c>
       <c r="D25">
-        <v>46.17171</v>
+        <v>43.42</v>
       </c>
       <c r="E25">
-        <v>44.395875</v>
+        <v>41.75</v>
       </c>
       <c r="F25">
-        <v>85.24008</v>
+        <v>80.15</v>
       </c>
       <c r="G25">
-        <v>78.13674</v>
+        <v>73.47</v>
       </c>
       <c r="H25">
         <v>0.0</v>
       </c>
       <c r="I25">
-        <v>108.325935</v>
+        <v>101.86</v>
       </c>
       <c r="J25">
         <v>0.0</v>
       </c>
       <c r="K25">
-        <v>165.152655</v>
+        <v>155.29</v>
       </c>
       <c r="L25">
         <v>0.0</v>
       </c>
       <c r="M25">
-        <v>197.117685</v>
+        <v>185.35</v>
       </c>
       <c r="N25">
         <v>0.0</v>
       </c>
       <c r="O25">
-        <v>207.772695</v>
+        <v>195.37</v>
       </c>
       <c r="P25">
-        <v>49.27951006999979</v>
+        <v>0.0</v>
       </c>
       <c r="Q25">
-        <v>79.912575</v>
+        <v>75.14</v>
       </c>
     </row>
   </sheetData>
@@ -3087,7 +4530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -3117,7 +4560,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>51.960710240000196</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
         <v>2.3100795000000005</v>
@@ -3137,10 +4580,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>78.67318960000011</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
-        <v>134.9983743</v>
+        <v>131.72110890000022</v>
       </c>
       <c r="C3">
         <v>5.4583715</v>
@@ -3157,10 +4600,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>11.35098495333213</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
-        <v>87.38089075666781</v>
+        <v>25.438532400000014</v>
       </c>
       <c r="C4">
         <v>7.144006149999999</v>
@@ -3177,10 +4620,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>74.31392914999995</v>
+        <v>0.0</v>
       </c>
       <c r="B5">
-        <v>199.8729033</v>
+        <v>51.37290329999999</v>
       </c>
       <c r="C5">
         <v>7.97851152</v>
@@ -3200,7 +4643,7 @@
         <v>3.329349900000011</v>
       </c>
       <c r="B6">
-        <v>159.72086531000014</v>
+        <v>68.26121040000001</v>
       </c>
       <c r="C6">
         <v>8.0471868</v>
@@ -3240,7 +4683,7 @@
         <v>69.77485710000002</v>
       </c>
       <c r="B8">
-        <v>80.5045911</v>
+        <v>95.31860081000036</v>
       </c>
       <c r="C8">
         <v>7.07830387</v>
@@ -3260,7 +4703,7 @@
         <v>213.2637129</v>
       </c>
       <c r="B9">
-        <v>206.49091616000032</v>
+        <v>95.08858650000002</v>
       </c>
       <c r="C9">
         <v>7.7646966200000005</v>
@@ -3280,7 +4723,7 @@
         <v>94.94512499999999</v>
       </c>
       <c r="B10">
-        <v>96.78196852000019</v>
+        <v>66.72025830000001</v>
       </c>
       <c r="C10">
         <v>8.63191232</v>
@@ -3297,10 +4740,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>257.4520494</v>
+        <v>158.92314805999987</v>
       </c>
       <c r="B11">
-        <v>50.63391818666463</v>
+        <v>154.5333069</v>
       </c>
       <c r="C11">
         <v>8.33182002</v>
@@ -3320,7 +4763,7 @@
         <v>100.40314139999998</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>83.2148684733326</v>
       </c>
       <c r="C12">
         <v>7.744792390000001</v>
@@ -3337,10 +4780,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>159.59621616000027</v>
+        <v>194.80726846</v>
       </c>
       <c r="B13">
-        <v>65.9640423</v>
+        <v>0.0</v>
       </c>
       <c r="C13">
         <v>6.4134005400000005</v>
@@ -3397,10 +4840,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>173.02605194000012</v>
+        <v>191.93241481333357</v>
       </c>
       <c r="B16">
-        <v>28.577528700000016</v>
+        <v>177.07752870000002</v>
       </c>
       <c r="C16">
         <v>6.8155346</v>
@@ -3417,7 +4860,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>105.60796113000015</v>
+        <v>222.0630705</v>
       </c>
       <c r="B17">
         <v>6.929213999999973</v>
@@ -3437,10 +4880,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>94.56270135000022</v>
+        <v>203.19577260000003</v>
       </c>
       <c r="B18">
-        <v>171.50979</v>
+        <v>129.03620375000014</v>
       </c>
       <c r="C18">
         <v>6.53150108</v>
@@ -3457,10 +4900,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>46.945448700000014</v>
+        <v>195.44544870000001</v>
       </c>
       <c r="B19">
-        <v>67.82327669999998</v>
+        <v>216.32327669999998</v>
       </c>
       <c r="C19">
         <v>6.732784710000001</v>
@@ -3500,7 +4943,7 @@
         <v>215.7220785</v>
       </c>
       <c r="B21">
-        <v>199.0616578800002</v>
+        <v>243.4653084</v>
       </c>
       <c r="C21">
         <v>6.041896380000001</v>
@@ -3517,7 +4960,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>183.82423281000024</v>
+        <v>219.4463523</v>
       </c>
       <c r="B22">
         <v>244.039176</v>
@@ -3537,10 +4980,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>187.9692345</v>
+        <v>39.4692345</v>
       </c>
       <c r="B23">
-        <v>222.32228092000014</v>
+        <v>234.0713106</v>
       </c>
       <c r="C23">
         <v>8.16531333</v>
@@ -3600,7 +5043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3621,7 +5064,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1140.0</v>
+        <v>1191.96621024</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -3643,7 +5086,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1100.0</v>
+        <v>1040.4454833099999</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -3654,7 +5097,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1100.0</v>
+        <v>1149.1450641500003</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -3665,7 +5108,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1100.0</v>
+        <v>1030.51088991</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -3676,7 +5119,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1100.0</v>
+        <v>959.0364794500001</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -3698,7 +5141,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1100.0</v>
+        <v>1587.8758196600002</v>
       </c>
       <c r="B9">
         <v>0.0</v>
@@ -3709,7 +5152,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1100.0</v>
+        <v>1707.4420802200002</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -3720,7 +5163,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1100.0</v>
+        <v>1720.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -3731,7 +5174,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>994.5751309299999</v>
+        <v>1424.0483174566673</v>
       </c>
       <c r="B12">
         <v>0.0</v>
@@ -3742,7 +5185,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1100.0</v>
+        <v>1720.0</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -3753,7 +5196,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1213.4928659500001</v>
+        <v>1868.80056095</v>
       </c>
       <c r="B14">
         <v>0.0</v>
@@ -3764,7 +5207,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1104.6299431</v>
+        <v>1752.5159881</v>
       </c>
       <c r="B15">
         <v>0.0</v>
@@ -3775,7 +5218,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1100.0</v>
+        <v>1465.9773471266662</v>
       </c>
       <c r="B16">
         <v>0.0</v>
@@ -3786,7 +5229,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1100.0</v>
+        <v>1482.4803506300002</v>
       </c>
       <c r="B17">
         <v>0.0</v>
@@ -3797,7 +5240,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1100.0</v>
+        <v>1720.0</v>
       </c>
       <c r="B18">
         <v>0.0</v>
@@ -3808,7 +5251,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1061.15426198</v>
+        <v>1216.47809198</v>
       </c>
       <c r="B19">
         <v>0.0</v>
@@ -3819,7 +5262,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1130.3711876800003</v>
+        <v>1817.44880268</v>
       </c>
       <c r="B20">
         <v>0.0</v>
@@ -3830,7 +5273,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1100.0</v>
+        <v>1745.07235448</v>
       </c>
       <c r="B21">
         <v>0.0</v>
@@ -3841,7 +5284,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1100.0</v>
+        <v>1373.61553551</v>
       </c>
       <c r="B22">
         <v>0.0</v>
@@ -3852,7 +5295,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1100.0</v>
+        <v>1616.72281032</v>
       </c>
       <c r="B23">
         <v>0.0</v>
@@ -3863,7 +5306,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1255.9546881000003</v>
+        <v>1407.9864281</v>
       </c>
       <c r="B24">
         <v>0.0</v>
@@ -3874,586 +5317,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1100.0</v>
+        <v>975.97681493</v>
       </c>
       <c r="B25">
         <v>0.0</v>
-      </c>
-      <c r="C25">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>541.629675</v>
-      </c>
-      <c r="B2">
-        <v>310.771125</v>
-      </c>
-      <c r="C2">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>946.520055</v>
-      </c>
-      <c r="B3">
-        <v>262.82358</v>
-      </c>
-      <c r="C3">
-        <v>163.37682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>738.7473600000001</v>
-      </c>
-      <c r="B4">
-        <v>262.82358</v>
-      </c>
-      <c r="C4">
-        <v>269.92692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>625.09392</v>
-      </c>
-      <c r="B5">
-        <v>438.63124500000004</v>
-      </c>
-      <c r="C5">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>781.3674000000001</v>
-      </c>
-      <c r="B6">
-        <v>282.357765</v>
-      </c>
-      <c r="C6">
-        <v>284.1336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>633.0237455499998</v>
-      </c>
-      <c r="B7">
-        <v>378.252855</v>
-      </c>
-      <c r="C7">
-        <v>269.92692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>725.49458529</v>
-      </c>
-      <c r="B8">
-        <v>218.42770499999997</v>
-      </c>
-      <c r="C8">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>946.520055</v>
-      </c>
-      <c r="B9">
-        <v>378.252855</v>
-      </c>
-      <c r="C9">
-        <v>284.1336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>832.8666149999999</v>
-      </c>
-      <c r="B10">
-        <v>158.04931499999998</v>
-      </c>
-      <c r="C10">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>946.520055</v>
-      </c>
-      <c r="B11">
-        <v>341.66259762666436</v>
-      </c>
-      <c r="C11">
-        <v>205.99686000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>463.492935</v>
-      </c>
-      <c r="B12">
-        <v>330.30531</v>
-      </c>
-      <c r="C12">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>749.40237</v>
-      </c>
-      <c r="B13">
-        <v>348.06366</v>
-      </c>
-      <c r="C13">
-        <v>312.54696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>738.7473600000001</v>
-      </c>
-      <c r="B14">
-        <v>438.63124500000004</v>
-      </c>
-      <c r="C14">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>781.3674000000001</v>
-      </c>
-      <c r="B15">
-        <v>378.252855</v>
-      </c>
-      <c r="C15">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>781.3674000000001</v>
-      </c>
-      <c r="B16">
-        <v>280.58193</v>
-      </c>
-      <c r="C16">
-        <v>312.54696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>676.5931350000001</v>
-      </c>
-      <c r="B17">
-        <v>218.42770499999997</v>
-      </c>
-      <c r="C17">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>719.2131750000001</v>
-      </c>
-      <c r="B18">
-        <v>326.75363999999996</v>
-      </c>
-      <c r="C18">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>598.4563949999999</v>
-      </c>
-      <c r="B19">
-        <v>378.252855</v>
-      </c>
-      <c r="C19">
-        <v>269.92692</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>884.3658300000002</v>
-      </c>
-      <c r="B20">
-        <v>378.252855</v>
-      </c>
-      <c r="C20">
-        <v>390.6837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>884.3658300000002</v>
-      </c>
-      <c r="B21">
-        <v>438.63124500000004</v>
-      </c>
-      <c r="C21">
-        <v>269.92692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>946.520055</v>
-      </c>
-      <c r="B22">
-        <v>394.23537000000005</v>
-      </c>
-      <c r="C22">
-        <v>269.92692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>946.520055</v>
-      </c>
-      <c r="B23">
-        <v>438.63124500000004</v>
-      </c>
-      <c r="C23">
-        <v>205.99686000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>946.520055</v>
-      </c>
-      <c r="B24">
-        <v>438.63124500000004</v>
-      </c>
-      <c r="C24">
-        <v>312.54696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>699.2351200699998</v>
-      </c>
-      <c r="B25">
-        <v>438.63124500000004</v>
-      </c>
-      <c r="C25">
-        <v>163.37682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>48.81371026</v>
-      </c>
-      <c r="B2">
-        <v>54.2707897400002</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>59.04889109999999</v>
-      </c>
-      <c r="B3">
-        <v>213.6715639000001</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>72.76598429</v>
-      </c>
-      <c r="B4">
-        <v>98.73187570999994</v>
-      </c>
-      <c r="C4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>80.22203255</v>
-      </c>
-      <c r="B5">
-        <v>274.18683244999994</v>
-      </c>
-      <c r="C5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>84.80854979</v>
-      </c>
-      <c r="B6">
-        <v>163.05021521000015</v>
-      </c>
-      <c r="C6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>83.47628135</v>
-      </c>
-      <c r="B7">
-        <v>97.72723919999999</v>
-      </c>
-      <c r="C7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>84.32654209</v>
-      </c>
-      <c r="B8">
-        <v>150.27944820000002</v>
-      </c>
-      <c r="C8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>89.15188094</v>
-      </c>
-      <c r="B9">
-        <v>419.7546290600003</v>
-      </c>
-      <c r="C9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>89.87253648000001</v>
-      </c>
-      <c r="B10">
-        <v>191.72709352000018</v>
-      </c>
-      <c r="C10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>86.09354504000001</v>
-      </c>
-      <c r="B11">
-        <v>308.08596758666465</v>
-      </c>
-      <c r="C11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>89.50367267</v>
-      </c>
-      <c r="B12">
-        <v>100.40314139999998</v>
-      </c>
-      <c r="C12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>84.45273154</v>
-      </c>
-      <c r="B13">
-        <v>225.56025846000028</v>
-      </c>
-      <c r="C13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>79.72201654999999</v>
-      </c>
-      <c r="B14">
-        <v>274.8474225</v>
-      </c>
-      <c r="C14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>78.0629051</v>
-      </c>
-      <c r="B15">
-        <v>367.6111068</v>
-      </c>
-      <c r="C15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>72.89270936</v>
-      </c>
-      <c r="B16">
-        <v>201.60358064000013</v>
-      </c>
-      <c r="C16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>73.16736487</v>
-      </c>
-      <c r="B17">
-        <v>112.53717513000012</v>
-      </c>
-      <c r="C17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>70.57802365</v>
-      </c>
-      <c r="B18">
-        <v>266.07249135000023</v>
-      </c>
-      <c r="C18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>70.71318262</v>
-      </c>
-      <c r="B19">
-        <v>114.7687254</v>
-      </c>
-      <c r="C19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>70.36597022000001</v>
-      </c>
-      <c r="B20">
-        <v>452.5652271</v>
-      </c>
-      <c r="C20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>78.14025862</v>
-      </c>
-      <c r="B21">
-        <v>414.7837363800002</v>
-      </c>
-      <c r="C21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>82.81893619</v>
-      </c>
-      <c r="B22">
-        <v>427.86340881000024</v>
-      </c>
-      <c r="C22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>80.85664458</v>
-      </c>
-      <c r="B23">
-        <v>410.2915154200001</v>
-      </c>
-      <c r="C23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>73.025871</v>
-      </c>
-      <c r="B24">
-        <v>368.7177009</v>
-      </c>
-      <c r="C24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>65.26244337</v>
-      </c>
-      <c r="B25">
-        <v>135.98074169999998</v>
       </c>
       <c r="C25">
         <v>0.0</v>

--- a/results_step3_zonal.xlsx
+++ b/results_step3_zonal.xlsx
@@ -1,41 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601c3f8e6edde6a/Documents/Ms_Sustainable_Energy/46755_Renewables_in_electricity_markets/REIM_Github/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="115_{AAA1D341-523E-49BC-B362-3882824E717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86EF6968-ECA6-431F-B32B-519F41795441}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="6" activeTab="12" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DA_Prices" sheetId="1" r:id="rId1"/>
-    <sheet name="Flows" r:id="rId5" sheetId="2"/>
-    <sheet name="Flows_1" r:id="rId6" sheetId="3"/>
-    <sheet name="Flows_2" r:id="rId7" sheetId="4"/>
-    <sheet name="Flows_3" r:id="rId8" sheetId="5"/>
-    <sheet name="Generation" r:id="rId9" sheetId="6"/>
-    <sheet name="Demand" r:id="rId10" sheetId="7"/>
-    <sheet name="Wind" r:id="rId11" sheetId="8"/>
-    <sheet name="Zonal_Generation" r:id="rId12" sheetId="9"/>
-    <sheet name="Zonal_Demand" r:id="rId13" sheetId="10"/>
-    <sheet name="Zonal_Wind" r:id="rId14" sheetId="11"/>
+    <sheet name="Flows" sheetId="2" r:id="rId2"/>
+    <sheet name="Flows_1" sheetId="3" r:id="rId3"/>
+    <sheet name="Flows_2" sheetId="4" r:id="rId4"/>
+    <sheet name="Flows_3" sheetId="5" r:id="rId5"/>
+    <sheet name="Generation" sheetId="6" r:id="rId6"/>
+    <sheet name="Demand" sheetId="7" r:id="rId7"/>
+    <sheet name="Wind" sheetId="8" r:id="rId8"/>
+    <sheet name="Zonal_Generation" sheetId="9" r:id="rId9"/>
+    <sheet name="Zonal_Demand" sheetId="10" r:id="rId10"/>
+    <sheet name="Zonal_Wind" sheetId="11" r:id="rId11"/>
+    <sheet name="Profit_gen" sheetId="12" r:id="rId12"/>
+    <sheet name="Profit_wind" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
   <si>
     <t>A1</t>
   </si>
@@ -110,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,14 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C885426-E243-4707-84A6-86E79A0CB291}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10.52</v>
       </c>
@@ -474,7 +496,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10.52</v>
       </c>
@@ -485,18 +507,18 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10.52</v>
       </c>
@@ -507,29 +529,29 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10.52</v>
       </c>
@@ -540,7 +562,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10.52</v>
       </c>
@@ -551,7 +573,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10.52</v>
       </c>
@@ -562,7 +584,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10.52</v>
       </c>
@@ -573,7 +595,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10.52</v>
       </c>
@@ -584,7 +606,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10.52</v>
       </c>
@@ -595,7 +617,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10.89</v>
       </c>
@@ -606,7 +628,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10.89</v>
       </c>
@@ -617,7 +639,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10.52</v>
       </c>
@@ -628,7 +650,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10.52</v>
       </c>
@@ -639,7 +661,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10.52</v>
       </c>
@@ -650,7 +672,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10.52</v>
       </c>
@@ -661,7 +683,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10.89</v>
       </c>
@@ -672,7 +694,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10.89</v>
       </c>
@@ -683,7 +705,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10.52</v>
       </c>
@@ -694,7 +716,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10.52</v>
       </c>
@@ -705,7 +727,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10.52</v>
       </c>
@@ -716,15 +738,15 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -733,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D559A612-A82F-4CEB-B5FF-C3D8A0046DF4}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>541.62</v>
       </c>
@@ -762,9 +784,9 @@
         <v>390.69</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>890.0099999999999</v>
+        <v>890.00999999999988</v>
       </c>
       <c r="B3">
         <v>247.14</v>
@@ -773,7 +795,7 @@
         <v>153.62</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>661.56</v>
       </c>
@@ -784,9 +806,9 @@
         <v>241.72000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>550.45</v>
+        <v>550.45000000000005</v>
       </c>
       <c r="B5">
         <v>386.25</v>
@@ -795,9 +817,9 @@
         <v>344.03999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>688.0600000000001</v>
+        <v>688.06000000000006</v>
       </c>
       <c r="B6">
         <v>248.64</v>
@@ -806,7 +828,7 @@
         <v>250.21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>559.78</v>
       </c>
@@ -817,7 +839,7 @@
         <v>241.72000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>794.35</v>
       </c>
@@ -828,7 +850,7 @@
         <v>313.82</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1135.1499999999999</v>
       </c>
@@ -839,7 +861,7 @@
         <v>364.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1180.9299999999998</v>
       </c>
@@ -847,10 +869,10 @@
         <v>224.10000000000002</v>
       </c>
       <c r="C10">
-        <v>553.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1356.2099999999998</v>
       </c>
@@ -858,10 +880,10 @@
         <v>468.17999999999995</v>
       </c>
       <c r="C11">
-        <v>295.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>295.16000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>664.11</v>
       </c>
@@ -872,7 +894,7 @@
         <v>559.79</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1062.58</v>
       </c>
@@ -883,29 +905,29 @@
         <v>443.15999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1047.48</v>
       </c>
       <c r="B14">
-        <v>621.9399999999999</v>
+        <v>621.93999999999994</v>
       </c>
       <c r="C14">
-        <v>553.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1107.91</v>
+        <v>1107.9100000000001</v>
       </c>
       <c r="B15">
-        <v>536.3299999999999</v>
+        <v>536.32999999999993</v>
       </c>
       <c r="C15">
-        <v>553.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1084.58</v>
       </c>
@@ -916,7 +938,7 @@
         <v>433.84000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>939.15</v>
       </c>
@@ -924,10 +946,10 @@
         <v>303.19</v>
       </c>
       <c r="C17">
-        <v>542.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>542.29999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1062.72</v>
       </c>
@@ -938,9 +960,9 @@
         <v>577.28</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>893.2199999999999</v>
+        <v>893.21999999999991</v>
       </c>
       <c r="B19">
         <v>402.87</v>
@@ -949,18 +971,18 @@
         <v>402.87</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1319.9500000000003</v>
       </c>
       <c r="B20">
-        <v>564.55</v>
+        <v>564.54999999999995</v>
       </c>
       <c r="C20">
         <v>455.88</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1267.1499999999999</v>
       </c>
@@ -971,18 +993,18 @@
         <v>386.77</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1017.85</v>
       </c>
       <c r="B22">
-        <v>535.45</v>
+        <v>535.45000000000005</v>
       </c>
       <c r="C22">
         <v>366.62</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1172.55</v>
       </c>
@@ -993,18 +1015,18 @@
         <v>255.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1031.28</v>
       </c>
       <c r="B24">
-        <v>477.9200000000001</v>
+        <v>477.92000000000007</v>
       </c>
       <c r="C24">
         <v>340.53</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>611.15</v>
       </c>
@@ -1021,14 +1043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2700EE2D-15D3-4838-8850-845370C60D7C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1039,117 +1061,117 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>48.81371026</v>
+        <v>48.813710260000001</v>
       </c>
       <c r="B2">
         <v>2.3100795000000005</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>59.04889109999999</v>
+        <v>59.048891099999992</v>
       </c>
       <c r="B3">
         <v>131.72110890000022</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>72.76598429</v>
+        <v>72.765984290000006</v>
       </c>
       <c r="B4">
         <v>25.438532400000014</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>80.22203255</v>
+        <v>80.222032549999994</v>
       </c>
       <c r="B5">
         <v>51.37290329999999</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>84.80854979</v>
+        <v>84.808549790000001</v>
       </c>
       <c r="B6">
-        <v>71.59056030000002</v>
+        <v>71.590560300000021</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>83.47628135</v>
+        <v>83.476281349999994</v>
       </c>
       <c r="B7">
-        <v>97.72723919999999</v>
+        <v>97.727239199999985</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>84.32654209</v>
+        <v>84.326542090000004</v>
       </c>
       <c r="B8">
         <v>165.09345791000038</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>89.15188094</v>
+        <v>89.151880939999998</v>
       </c>
       <c r="B9">
-        <v>308.3522994</v>
+        <v>308.35229939999999</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>89.87253648000001</v>
+        <v>89.872536480000008</v>
       </c>
       <c r="B10">
         <v>161.6653833</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>86.09354504000001</v>
+        <v>86.093545040000009</v>
       </c>
       <c r="B11">
         <v>313.45645495999986</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>89.50367267</v>
       </c>
@@ -1157,54 +1179,54 @@
         <v>183.6180098733326</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>84.45273154</v>
+        <v>84.452731540000002</v>
       </c>
       <c r="B13">
-        <v>194.80726846</v>
+        <v>194.80726845999999</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>79.72201654999999</v>
+        <v>79.722016549999992</v>
       </c>
       <c r="B14">
-        <v>274.8474225</v>
+        <v>274.84742249999999</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>78.0629051</v>
+        <v>78.062905099999995</v>
       </c>
       <c r="B15">
-        <v>367.6111068</v>
+        <v>367.61110680000002</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>72.89270936</v>
+        <v>72.892709359999998</v>
       </c>
       <c r="B16">
-        <v>369.0099435133336</v>
+        <v>369.00994351333361</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>73.16736487</v>
       </c>
@@ -1212,87 +1234,87 @@
         <v>228.99228449999998</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>70.57802365</v>
+        <v>70.578023650000006</v>
       </c>
       <c r="B18">
         <v>332.2319763500002</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>70.71318262</v>
+        <v>70.713182619999998</v>
       </c>
       <c r="B19">
-        <v>411.7687254</v>
+        <v>411.76872539999999</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>70.36597022000001</v>
+        <v>70.365970220000008</v>
       </c>
       <c r="B20">
-        <v>452.5652271</v>
+        <v>452.56522710000002</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>78.14025862</v>
+        <v>78.140258619999997</v>
       </c>
       <c r="B21">
-        <v>459.1873869</v>
+        <v>459.18738689999998</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>82.81893619</v>
+        <v>82.818936190000002</v>
       </c>
       <c r="B22">
         <v>463.4855283</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>80.85664458</v>
+        <v>80.856644579999994</v>
       </c>
       <c r="B23">
         <v>273.54054510000003</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>73.025871</v>
+        <v>73.025870999999995</v>
       </c>
       <c r="B24">
-        <v>368.7177009</v>
+        <v>368.71770090000001</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>65.26244337</v>
       </c>
@@ -1300,7 +1322,1537 @@
         <v>135.98074169999998</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93008EC9-18E2-402E-A6A1-78C91AB7F316}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1800</v>
+      </c>
+      <c r="I2">
+        <v>2020</v>
+      </c>
+      <c r="J2">
+        <v>156</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-14.800000000000068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1800</v>
+      </c>
+      <c r="I3">
+        <v>2020</v>
+      </c>
+      <c r="J3">
+        <v>156</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1592</v>
+      </c>
+      <c r="I4">
+        <v>1812</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1800</v>
+      </c>
+      <c r="I5">
+        <v>2020</v>
+      </c>
+      <c r="J5">
+        <v>156</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1592</v>
+      </c>
+      <c r="I6">
+        <v>1812</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1592</v>
+      </c>
+      <c r="I7">
+        <v>1812</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1800</v>
+      </c>
+      <c r="I8">
+        <v>2020</v>
+      </c>
+      <c r="J8">
+        <v>156</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1800</v>
+      </c>
+      <c r="I9">
+        <v>2020</v>
+      </c>
+      <c r="J9">
+        <v>156</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1800</v>
+      </c>
+      <c r="I10">
+        <v>2020</v>
+      </c>
+      <c r="J10">
+        <v>156</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1800</v>
+      </c>
+      <c r="I11">
+        <v>2020</v>
+      </c>
+      <c r="J11">
+        <v>156</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1800</v>
+      </c>
+      <c r="I12">
+        <v>2020</v>
+      </c>
+      <c r="J12">
+        <v>156</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1800</v>
+      </c>
+      <c r="I13">
+        <v>2020</v>
+      </c>
+      <c r="J13">
+        <v>156</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="G14">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="H14">
+        <v>1948</v>
+      </c>
+      <c r="I14">
+        <v>2168</v>
+      </c>
+      <c r="J14">
+        <v>267</v>
+      </c>
+      <c r="K14">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="G15">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="H15">
+        <v>1948</v>
+      </c>
+      <c r="I15">
+        <v>2168</v>
+      </c>
+      <c r="J15">
+        <v>267</v>
+      </c>
+      <c r="K15">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1800</v>
+      </c>
+      <c r="I16">
+        <v>2020</v>
+      </c>
+      <c r="J16">
+        <v>156</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1800</v>
+      </c>
+      <c r="I17">
+        <v>2020</v>
+      </c>
+      <c r="J17">
+        <v>156</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1800</v>
+      </c>
+      <c r="I18">
+        <v>2020</v>
+      </c>
+      <c r="J18">
+        <v>156</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1800</v>
+      </c>
+      <c r="I19">
+        <v>2020</v>
+      </c>
+      <c r="J19">
+        <v>156</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="G20">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="H20">
+        <v>1948</v>
+      </c>
+      <c r="I20">
+        <v>2168</v>
+      </c>
+      <c r="J20">
+        <v>267</v>
+      </c>
+      <c r="K20">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="G21">
+        <v>57.350000000000136</v>
+      </c>
+      <c r="H21">
+        <v>1948</v>
+      </c>
+      <c r="I21">
+        <v>2168</v>
+      </c>
+      <c r="J21">
+        <v>267</v>
+      </c>
+      <c r="K21">
+        <v>114.70000000000027</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1800</v>
+      </c>
+      <c r="I22">
+        <v>2020</v>
+      </c>
+      <c r="J22">
+        <v>156</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1800</v>
+      </c>
+      <c r="I23">
+        <v>2020</v>
+      </c>
+      <c r="J23">
+        <v>156</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1800</v>
+      </c>
+      <c r="I24">
+        <v>2020</v>
+      </c>
+      <c r="J24">
+        <v>156</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1592</v>
+      </c>
+      <c r="I25">
+        <v>1812</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f>SUM(A2:A25)</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:L27" si="0">SUM(B2:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>229.40000000000055</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>229.40000000000055</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>42960</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>48240</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>3564</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>458.80000000000109</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>-14.800000000000068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21729D5A-FAAF-40C7-8FE8-A3EC19249BB8}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24.302036340000004</v>
+      </c>
+      <c r="C2">
+        <v>48.812954433599998</v>
+      </c>
+      <c r="D2">
+        <v>100.3301632352</v>
+      </c>
+      <c r="E2">
+        <v>252.485360466</v>
+      </c>
+      <c r="F2">
+        <v>111.8917538004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1385.7060656280023</v>
+      </c>
+      <c r="C3">
+        <v>57.422068179999997</v>
+      </c>
+      <c r="D3">
+        <v>113.54989400319998</v>
+      </c>
+      <c r="E3">
+        <v>272.51056128999994</v>
+      </c>
+      <c r="F3">
+        <v>177.7118108988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>254.38532400000014</v>
+      </c>
+      <c r="C4">
+        <v>71.440061499999985</v>
+      </c>
+      <c r="D4">
+        <v>134.7802006</v>
+      </c>
+      <c r="E4">
+        <v>320.69119649999999</v>
+      </c>
+      <c r="F4">
+        <v>200.7483843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>540.44294271599983</v>
+      </c>
+      <c r="C5">
+        <v>83.933941190399992</v>
+      </c>
+      <c r="D5">
+        <v>140.61412697759999</v>
+      </c>
+      <c r="E5">
+        <v>376.00750689399996</v>
+      </c>
+      <c r="F5">
+        <v>243.38020736400003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>33.293499000000111</v>
+      </c>
+      <c r="B6">
+        <v>682.61210400000004</v>
+      </c>
+      <c r="C6">
+        <v>80.471868000000001</v>
+      </c>
+      <c r="D6">
+        <v>165.3032632</v>
+      </c>
+      <c r="E6">
+        <v>360.07600000000002</v>
+      </c>
+      <c r="F6">
+        <v>242.23436669999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>510.58502699999991</v>
+      </c>
+      <c r="B7">
+        <v>466.68736499999994</v>
+      </c>
+      <c r="C7">
+        <v>78.511441000000005</v>
+      </c>
+      <c r="D7">
+        <v>161.82756560000001</v>
+      </c>
+      <c r="E7">
+        <v>361.59037849999999</v>
+      </c>
+      <c r="F7">
+        <v>232.8334284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>734.03149669200013</v>
+      </c>
+      <c r="B8">
+        <v>1002.7516805212038</v>
+      </c>
+      <c r="C8">
+        <v>74.463756712399999</v>
+      </c>
+      <c r="D8">
+        <v>168.24320778719999</v>
+      </c>
+      <c r="E8">
+        <v>402.02099732400001</v>
+      </c>
+      <c r="F8">
+        <v>242.38726096319999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2243.5342597079998</v>
+      </c>
+      <c r="B9">
+        <v>1000.3319299800002</v>
+      </c>
+      <c r="C9">
+        <v>81.684608442400005</v>
+      </c>
+      <c r="D9">
+        <v>179.68655155359997</v>
+      </c>
+      <c r="E9">
+        <v>417.23076440599993</v>
+      </c>
+      <c r="F9">
+        <v>259.27586308679997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>998.8227149999999</v>
+      </c>
+      <c r="B10">
+        <v>701.89711731600005</v>
+      </c>
+      <c r="C10">
+        <v>90.80771760639999</v>
+      </c>
+      <c r="D10">
+        <v>194.9545719784</v>
+      </c>
+      <c r="E10">
+        <v>396.86900932000003</v>
+      </c>
+      <c r="F10">
+        <v>262.82778486479998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1671.8715175911987</v>
+      </c>
+      <c r="B11">
+        <v>1625.6903885880001</v>
+      </c>
+      <c r="C11">
+        <v>87.650746610400006</v>
+      </c>
+      <c r="D11">
+        <v>187.27110335360001</v>
+      </c>
+      <c r="E11">
+        <v>393.61740198199999</v>
+      </c>
+      <c r="F11">
+        <v>237.1648418748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1056.2410475279999</v>
+      </c>
+      <c r="B12">
+        <v>875.42041633945894</v>
+      </c>
+      <c r="C12">
+        <v>81.475215942800006</v>
+      </c>
+      <c r="D12">
+        <v>196.99370944559999</v>
+      </c>
+      <c r="E12">
+        <v>430.50372479600003</v>
+      </c>
+      <c r="F12">
+        <v>232.605986304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2049.3724641991998</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>67.468973680800005</v>
+      </c>
+      <c r="D13">
+        <v>173.08881551919998</v>
+      </c>
+      <c r="E13">
+        <v>406.48333094799995</v>
+      </c>
+      <c r="F13">
+        <v>241.40161565279999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2530.9593270720002</v>
+      </c>
+      <c r="B14">
+        <v>462.12910395300008</v>
+      </c>
+      <c r="C14">
+        <v>68.222798295300009</v>
+      </c>
+      <c r="D14">
+        <v>166.79591181000001</v>
+      </c>
+      <c r="E14">
+        <v>390.2669941995</v>
+      </c>
+      <c r="F14">
+        <v>242.88705592470001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2392.2628180110005</v>
+      </c>
+      <c r="B15">
+        <v>1611.022135041</v>
+      </c>
+      <c r="C15">
+        <v>74.858283294299994</v>
+      </c>
+      <c r="D15">
+        <v>158.00428238760003</v>
+      </c>
+      <c r="E15">
+        <v>407.02367786849999</v>
+      </c>
+      <c r="F15">
+        <v>210.2187929886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2019.129003836269</v>
+      </c>
+      <c r="B16">
+        <v>1862.855601924</v>
+      </c>
+      <c r="C16">
+        <v>71.699423992000007</v>
+      </c>
+      <c r="D16">
+        <v>149.68102399439999</v>
+      </c>
+      <c r="E16">
+        <v>391.75955052</v>
+      </c>
+      <c r="F16">
+        <v>153.69130396079998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2336.1035016599999</v>
+      </c>
+      <c r="B17">
+        <v>72.895331279999724</v>
+      </c>
+      <c r="C17">
+        <v>69.0141358164</v>
+      </c>
+      <c r="D17">
+        <v>153.03711607760002</v>
+      </c>
+      <c r="E17">
+        <v>375.63208912199997</v>
+      </c>
+      <c r="F17">
+        <v>172.03733741639999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2137.6195277520001</v>
+      </c>
+      <c r="B18">
+        <v>1357.4608634500014</v>
+      </c>
+      <c r="C18">
+        <v>68.711391361599993</v>
+      </c>
+      <c r="D18">
+        <v>154.1370470912</v>
+      </c>
+      <c r="E18">
+        <v>367.40801968400001</v>
+      </c>
+      <c r="F18">
+        <v>152.22435066119999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2056.0861203240001</v>
+      </c>
+      <c r="B19">
+        <v>2275.7208708839999</v>
+      </c>
+      <c r="C19">
+        <v>70.828895149200008</v>
+      </c>
+      <c r="D19">
+        <v>155.0712731664</v>
+      </c>
+      <c r="E19">
+        <v>375.93832316599998</v>
+      </c>
+      <c r="F19">
+        <v>142.06418968079998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2382.4805281200001</v>
+      </c>
+      <c r="B20">
+        <v>2545.9547949990006</v>
+      </c>
+      <c r="C20">
+        <v>53.445205291500002</v>
+      </c>
+      <c r="D20">
+        <v>170.6165415504</v>
+      </c>
+      <c r="E20">
+        <v>361.33387047450009</v>
+      </c>
+      <c r="F20">
+        <v>180.88979837939999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2349.2134348650002</v>
+      </c>
+      <c r="B21">
+        <v>2651.3372084760003</v>
+      </c>
+      <c r="C21">
+        <v>65.796251578200014</v>
+      </c>
+      <c r="D21">
+        <v>167.27073737219999</v>
+      </c>
+      <c r="E21">
+        <v>403.64475534899998</v>
+      </c>
+      <c r="F21">
+        <v>214.23567207240004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2308.575626196</v>
+      </c>
+      <c r="B22">
+        <v>2567.2921315199997</v>
+      </c>
+      <c r="C22">
+        <v>72.920152167999987</v>
+      </c>
+      <c r="D22">
+        <v>154.14461980799999</v>
+      </c>
+      <c r="E22">
+        <v>429.65724246400003</v>
+      </c>
+      <c r="F22">
+        <v>214.53319427879998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>415.21634693999999</v>
+      </c>
+      <c r="B23">
+        <v>2462.430187512</v>
+      </c>
+      <c r="C23">
+        <v>85.899096231599998</v>
+      </c>
+      <c r="D23">
+        <v>163.00634884159999</v>
+      </c>
+      <c r="E23">
+        <v>399.54399073599996</v>
+      </c>
+      <c r="F23">
+        <v>202.16246517240003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1954.8073661639999</v>
+      </c>
+      <c r="B24">
+        <v>1924.1028473040001</v>
+      </c>
+      <c r="C24">
+        <v>85.881460713999985</v>
+      </c>
+      <c r="D24">
+        <v>159.53442798159998</v>
+      </c>
+      <c r="E24">
+        <v>421.97897534800001</v>
+      </c>
+      <c r="F24">
+        <v>100.83729887639998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>567.93302399999993</v>
+      </c>
+      <c r="B25">
+        <v>791.87439299999994</v>
+      </c>
+      <c r="C25">
+        <v>80.786004899999995</v>
+      </c>
+      <c r="D25">
+        <v>128.65589459999998</v>
+      </c>
+      <c r="E25">
+        <v>395.11667399999999</v>
+      </c>
+      <c r="F25">
+        <v>48.065860200000003</v>
       </c>
     </row>
   </sheetData>
@@ -1309,14 +2861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECBBDCB-F374-4D19-ACD4-46256F8A15F2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1327,37 +2879,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C2">
-        <v>-800.8400794999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-800.84007949999977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-1500.0</v>
+        <v>-1500</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1191.5300794999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>800.8400794999998</v>
+        <v>800.84007949999977</v>
       </c>
       <c r="B4">
         <v>-1191.5300794999998</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1366,14 +2918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376BD51-5212-408C-B01F-2E5A50462DEF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1384,268 +2936,268 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C2">
-        <v>-800.8400794999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-800.84007949999977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1269.0388910999998</v>
       </c>
       <c r="C3">
-        <v>-1000.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1451.6514676</v>
+        <v>1451.6514675999999</v>
       </c>
       <c r="C4">
-        <v>-1000.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C5">
-        <v>-821.0829032999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-821.08290329999977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1427.2594397</v>
       </c>
       <c r="C6">
-        <v>-1000.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1482.7327608</v>
+        <v>1482.7327608000001</v>
       </c>
       <c r="C7">
-        <v>-1000.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1389.9765420899998</v>
       </c>
       <c r="C8">
-        <v>-1000.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>-458.1222994</v>
+        <v>-458.12229939999997</v>
       </c>
       <c r="C9">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>-383.6153832999999</v>
+        <v>-383.61538329999991</v>
       </c>
       <c r="C10">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>-550.1164549599999</v>
+        <v>-550.11645495999994</v>
       </c>
       <c r="C11">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>-150.55800987333265</v>
       </c>
       <c r="C12">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>-258.12726845999987</v>
       </c>
       <c r="C13">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>-98.95742249999995</v>
       </c>
       <c r="C14">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>-277.3311067999999</v>
+        <v>-277.33110679999987</v>
       </c>
       <c r="C15">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>-545.7099435133337</v>
+        <v>-545.70994351333366</v>
       </c>
       <c r="C16">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>-383.50228449999986</v>
       </c>
       <c r="C17">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>-272.14197635000005</v>
       </c>
       <c r="C18">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>-606.0287254</v>
+        <v>-606.02872539999998</v>
       </c>
       <c r="C19">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>-432.13522709999995</v>
       </c>
       <c r="C20">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>-443.9373868999999</v>
+        <v>-443.93738689999992</v>
       </c>
       <c r="C21">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>-561.4155282999999</v>
+        <v>-561.41552829999989</v>
       </c>
       <c r="C22">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C23">
-        <v>-974.9705451000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-974.97054510000021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>1449.7322991</v>
+        <v>1449.7322991000001</v>
       </c>
       <c r="C24">
-        <v>-1000.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>1430.0892583</v>
       </c>
       <c r="C25">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>
@@ -1654,14 +3206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2576DD9-3A0E-433A-8050-260C7B30451A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1672,268 +3224,268 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-1500.0</v>
+        <v>-1500</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1191.5300794999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-1269.0388910999998</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1153.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1153.6199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-1451.6514676</v>
+        <v>-1451.6514675999999</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1241.72</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-1500.0</v>
+        <v>-1500</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1165.1229032999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-1427.2594397</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1250.21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-1482.7327608</v>
+        <v>-1482.7327608000001</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1241.72</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-1389.9765420899998</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1313.8200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>458.1222994</v>
+        <v>458.12229939999997</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-635.3000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-635.30000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>383.6153832999999</v>
+        <v>383.61538329999991</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-446.04999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>550.1164549599999</v>
+        <v>550.11645495999994</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>-704.84</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>150.55800987333265</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>-440.21000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>258.12726845999987</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-556.8399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-556.83999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>98.95742249999995</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>-446.04999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>277.3311067999999</v>
+        <v>277.33110679999987</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>-446.04999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>545.7099435133337</v>
+        <v>545.70994351333366</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-566.1600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-566.16000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>383.50228449999986</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>-457.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>272.14197635000005</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>-422.71999999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>606.0287254</v>
+        <v>606.02872539999998</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>-597.13</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>432.13522709999995</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>-544.12</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>443.9373868999999</v>
+        <v>443.93738689999992</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>-613.23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>561.4155282999999</v>
+        <v>561.41552829999989</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>-633.38</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>-1500.0</v>
+        <v>-1500</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1230.1605451000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>-1449.7322991</v>
+        <v>-1449.7322991000001</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1340.53</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>-1430.0892583</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1153.62</v>
+        <v>1153.6199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1942,14 +3494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD3CDE3-F1B8-4756-8F84-64C6374A6D17}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1960,268 +3512,268 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>800.8400794999998</v>
+        <v>800.84007949999977</v>
       </c>
       <c r="B2">
         <v>-1191.5300794999998</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B3">
-        <v>-1153.62</v>
+        <v>-1153.6199999999999</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>-1241.72</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>821.0829032999998</v>
+        <v>821.08290329999977</v>
       </c>
       <c r="B5">
         <v>-1165.1229032999997</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>-1250.21</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>-1241.72</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>-1313.8200000000002</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B9">
-        <v>635.3000000000001</v>
+        <v>635.30000000000007</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B10">
         <v>446.04999999999995</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B11">
         <v>704.84</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B12">
         <v>440.21000000000004</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B13">
-        <v>556.8399999999999</v>
+        <v>556.83999999999992</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B14">
         <v>446.04999999999995</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B15">
         <v>446.04999999999995</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B16">
-        <v>566.1600000000001</v>
+        <v>566.16000000000008</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B17">
         <v>457.7</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B18">
         <v>422.71999999999986</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B19">
         <v>597.13</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B20">
         <v>544.12</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B21">
         <v>613.23</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="B22">
         <v>633.38</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>974.9705451000002</v>
+        <v>974.97054510000021</v>
       </c>
       <c r="B23">
         <v>-1230.1605451000003</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>-1340.53</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B25">
-        <v>-1153.62</v>
+        <v>-1153.6199999999999</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2230,14 +3782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36599E27-47EA-435A-8CFE-BE229FD3A2C7}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2275,916 +3827,916 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I2">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J2">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K2">
-        <v>51.96621024000001</v>
+        <v>51.966210240000009</v>
       </c>
       <c r="L2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I4">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J4">
         <v>240.44548330999987</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>49.14506415000028</v>
       </c>
       <c r="H5">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I5">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J5">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I6">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J6">
         <v>230.51088991000006</v>
       </c>
       <c r="K6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I7">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J7">
         <v>159.03647945000012</v>
       </c>
       <c r="K7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I8">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J8">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G9">
         <v>22.875819660000047</v>
       </c>
       <c r="H9">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I9">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J9">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K9">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G10">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H10">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I10">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J10">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K10">
         <v>297.44208022000015</v>
       </c>
       <c r="L10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G11">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H11">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I11">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J11">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K11">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J12">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K12">
         <v>169.04831745666723</v>
       </c>
       <c r="L12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G13">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H13">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I13">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J13">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K13">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G14">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H14">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I14">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J14">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K14">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L14">
         <v>148.80056095000015</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G15">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H15">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I15">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J15">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K15">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L15">
         <v>32.515988100000015</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H16">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I16">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J16">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K16">
         <v>210.97734712666636</v>
       </c>
       <c r="L16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H17">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I17">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J17">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K17">
         <v>227.4803506300002</v>
       </c>
       <c r="L17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G18">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H18">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I18">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J18">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K18">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>116.47809198000004</v>
       </c>
       <c r="G19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I19">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J19">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G20">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H20">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I20">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J20">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K20">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L20">
-        <v>97.44880267999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>97.448802679999972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G21">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="H21">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I21">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J21">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K21">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L21">
-        <v>25.07235448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>25.072354480000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I22">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J22">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K22">
         <v>273.61553550999986</v>
       </c>
       <c r="L22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G23">
-        <v>51.72281032000001</v>
+        <v>51.722810320000008</v>
       </c>
       <c r="H23">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I23">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J23">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K23">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="L23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G24">
-        <v>152.9864281</v>
+        <v>152.98642810000001</v>
       </c>
       <c r="H24">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I24">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J24">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="K24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="I25">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J25">
         <v>175.97681493000005</v>
       </c>
       <c r="K25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3193,14 +4745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4977C-3BFE-4C1B-AD1D-13F9FB59A381}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3253,12 +4805,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>111.88</v>
@@ -3291,13 +4843,13 @@
         <v>120.76</v>
       </c>
       <c r="M2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>62.15</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>113.65</v>
@@ -3306,9 +4858,9 @@
         <v>79.91</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>56.77</v>
@@ -3323,19 +4875,19 @@
         <v>41.75</v>
       </c>
       <c r="F3">
-        <v>80.15</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="G3">
         <v>73.47</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>155.29</v>
@@ -3359,9 +4911,9 @@
         <v>75.14</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>54.07</v>
@@ -3385,10 +4937,10 @@
         <v>95.42</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>147.9</v>
@@ -3403,7 +4955,7 @@
         <v>55.66</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>101.78</v>
@@ -3412,7 +4964,7 @@
         <v>71.56</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59.42</v>
       </c>
@@ -3423,10 +4975,10 @@
         <v>98.52</v>
       </c>
       <c r="D5">
-        <v>40.66</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="E5">
-        <v>39.09</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="F5">
         <v>75.06</v>
@@ -3456,16 +5008,16 @@
         <v>54.73</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>70.37</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59.42</v>
       </c>
@@ -3473,13 +5025,13 @@
         <v>53.17</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>40.66</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>75.06</v>
@@ -3488,7 +5040,7 @@
         <v>68.81</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>95.39</v>
@@ -3497,7 +5049,7 @@
         <v>106.34</v>
       </c>
       <c r="K6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>106.34</v>
@@ -3518,12 +5070,12 @@
         <v>70.37</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60.43</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>100.19</v>
@@ -3547,7 +5099,7 @@
         <v>97.01</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>147.9</v>
@@ -3562,16 +5114,16 @@
         <v>55.66</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>71.56</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>74.53</v>
       </c>
@@ -3579,10 +5131,10 @@
         <v>66.69</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>49.03</v>
@@ -3594,16 +5146,16 @@
         <v>86.3</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>133.37</v>
       </c>
       <c r="K8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>133.37</v>
@@ -3612,7 +5164,7 @@
         <v>217.71</v>
       </c>
       <c r="N8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>229.48</v>
@@ -3624,12 +5176,12 @@
         <v>88.26</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>86.62</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>143.6</v>
@@ -3647,25 +5199,25 @@
         <v>100.29</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>139.05</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="J9">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="K9">
         <v>211.99</v>
       </c>
       <c r="L9">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="M9">
         <v>253.02</v>
       </c>
       <c r="N9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>266.69</v>
@@ -3677,15 +5229,15 @@
         <v>102.57</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>95.68</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>65.47</v>
@@ -3700,10 +5252,10 @@
         <v>110.79</v>
       </c>
       <c r="H10">
-        <v>151.08</v>
+        <v>151.08000000000001</v>
       </c>
       <c r="I10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>171.22</v>
@@ -3721,16 +5273,16 @@
         <v>88.13</v>
       </c>
       <c r="O10">
-        <v>294.6</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>113.31</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>96.69</v>
       </c>
@@ -3738,7 +5290,7 @@
         <v>86.51</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>66.16</v>
@@ -3750,10 +5302,10 @@
         <v>122.14</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>155.21</v>
@@ -3783,7 +5335,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>96.69</v>
       </c>
@@ -3791,7 +5343,7 @@
         <v>86.51</v>
       </c>
       <c r="C12">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="D12">
         <v>66.16</v>
@@ -3806,22 +5358,22 @@
         <v>111.96</v>
       </c>
       <c r="H12">
-        <v>152.67</v>
+        <v>152.66999999999999</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>173.02</v>
       </c>
       <c r="K12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>89.06</v>
@@ -3836,7 +5388,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>95.68</v>
       </c>
@@ -3847,19 +5399,19 @@
         <v>158.63</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>120.86</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>151.08</v>
+        <v>151.08000000000001</v>
       </c>
       <c r="I13">
         <v>153.6</v>
@@ -3874,13 +5426,13 @@
         <v>171.22</v>
       </c>
       <c r="M13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>88.13</v>
       </c>
       <c r="O13">
-        <v>294.6</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="P13">
         <v>161.15</v>
@@ -3889,7 +5441,7 @@
         <v>113.31</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>95.68</v>
       </c>
@@ -3912,7 +5464,7 @@
         <v>110.79</v>
       </c>
       <c r="H14">
-        <v>151.08</v>
+        <v>151.08000000000001</v>
       </c>
       <c r="I14">
         <v>153.6</v>
@@ -3933,7 +5485,7 @@
         <v>88.13</v>
       </c>
       <c r="O14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>161.15</v>
@@ -3942,12 +5494,12 @@
         <v>113.31</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>95.68</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>158.63</v>
@@ -3965,7 +5517,7 @@
         <v>110.79</v>
       </c>
       <c r="H15">
-        <v>151.08</v>
+        <v>151.08000000000001</v>
       </c>
       <c r="I15">
         <v>153.6</v>
@@ -3974,7 +5526,7 @@
         <v>171.22</v>
       </c>
       <c r="K15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>171.22</v>
@@ -3986,7 +5538,7 @@
         <v>88.13</v>
       </c>
       <c r="O15">
-        <v>294.6</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="P15">
         <v>161.15</v>
@@ -3995,7 +5547,7 @@
         <v>113.31</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>93.67</v>
       </c>
@@ -4003,10 +5555,10 @@
         <v>83.81</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>61.62</v>
@@ -4015,19 +5567,19 @@
         <v>118.32</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>147.9</v>
       </c>
       <c r="I16">
-        <v>150.36</v>
+        <v>150.36000000000001</v>
       </c>
       <c r="J16">
         <v>167.62</v>
       </c>
       <c r="K16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>167.62</v>
@@ -4039,7 +5591,7 @@
         <v>86.27</v>
       </c>
       <c r="O16">
-        <v>288.4</v>
+        <v>288.39999999999998</v>
       </c>
       <c r="P16">
         <v>157.76</v>
@@ -4048,7 +5600,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>93.67</v>
       </c>
@@ -4056,7 +5608,7 @@
         <v>83.81</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>64.09</v>
@@ -4074,7 +5626,7 @@
         <v>147.9</v>
       </c>
       <c r="I17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>167.62</v>
@@ -4089,10 +5641,10 @@
         <v>273.61</v>
       </c>
       <c r="N17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>157.76</v>
@@ -4101,7 +5653,7 @@
         <v>110.92</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>99.71</v>
       </c>
@@ -4109,13 +5661,13 @@
         <v>89.22</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>68.22</v>
       </c>
       <c r="E18">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="F18">
         <v>125.95</v>
@@ -4133,7 +5685,7 @@
         <v>178.43</v>
       </c>
       <c r="K18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>178.43</v>
@@ -4142,7 +5694,7 @@
         <v>291.26</v>
       </c>
       <c r="N18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>307.01</v>
@@ -4154,12 +5706,12 @@
         <v>118.08</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>100.72</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>166.98</v>
@@ -4168,7 +5720,7 @@
         <v>68.91</v>
       </c>
       <c r="E19">
-        <v>66.26</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="F19">
         <v>127.22</v>
@@ -4180,22 +5732,22 @@
         <v>159.03</v>
       </c>
       <c r="I19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>294.21</v>
+        <v>294.20999999999998</v>
       </c>
       <c r="N19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>310.11</v>
@@ -4207,12 +5759,12 @@
         <v>119.27</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>100.72</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>166.98</v>
@@ -4221,10 +5773,10 @@
         <v>68.91</v>
       </c>
       <c r="E20">
-        <v>66.26</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>116.62</v>
@@ -4245,10 +5797,10 @@
         <v>180.23</v>
       </c>
       <c r="M20">
-        <v>294.21</v>
+        <v>294.20999999999998</v>
       </c>
       <c r="N20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>310.11</v>
@@ -4260,7 +5812,7 @@
         <v>119.27</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>96.69</v>
       </c>
@@ -4268,7 +5820,7 @@
         <v>86.51</v>
       </c>
       <c r="C21">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="D21">
         <v>66.16</v>
@@ -4283,13 +5835,13 @@
         <v>111.96</v>
       </c>
       <c r="H21">
-        <v>152.67</v>
+        <v>152.66999999999999</v>
       </c>
       <c r="I21">
         <v>155.21</v>
       </c>
       <c r="J21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>236.64</v>
@@ -4301,7 +5853,7 @@
         <v>282.44</v>
       </c>
       <c r="N21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>297.7</v>
@@ -4313,7 +5865,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>91.65</v>
       </c>
@@ -4321,13 +5873,13 @@
         <v>82.01</v>
       </c>
       <c r="C22">
-        <v>151.95</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="D22">
         <v>62.71</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>115.77</v>
@@ -4342,7 +5894,7 @@
         <v>147.13</v>
       </c>
       <c r="J22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>224.31</v>
@@ -4351,7 +5903,7 @@
         <v>164.01</v>
       </c>
       <c r="M22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>84.42</v>
@@ -4366,7 +5918,7 @@
         <v>108.54</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>83.6</v>
       </c>
@@ -4380,16 +5932,16 @@
         <v>57.2</v>
       </c>
       <c r="E23">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>105.6</v>
       </c>
       <c r="G23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>134.19</v>
@@ -4407,7 +5959,7 @@
         <v>244.19</v>
       </c>
       <c r="N23">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="O23">
         <v>257.39</v>
@@ -4416,15 +5968,15 @@
         <v>140.79</v>
       </c>
       <c r="Q23">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>73.52</v>
       </c>
       <c r="B24">
-        <v>65.79</v>
+        <v>65.790000000000006</v>
       </c>
       <c r="C24">
         <v>121.9</v>
@@ -4439,7 +5991,7 @@
         <v>92.87</v>
       </c>
       <c r="G24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>116.09</v>
@@ -4472,7 +6024,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>63.45</v>
       </c>
@@ -4489,37 +6041,37 @@
         <v>41.75</v>
       </c>
       <c r="F25">
-        <v>80.15</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="G25">
         <v>73.47</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>101.86</v>
       </c>
       <c r="J25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>155.29</v>
       </c>
       <c r="L25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>185.35</v>
       </c>
       <c r="N25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>195.37</v>
       </c>
       <c r="P25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>75.14</v>
@@ -4531,14 +6083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3F32F-0728-4573-9448-0C5062A33804}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4558,18 +6110,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2.3100795000000005</v>
       </c>
       <c r="C2">
-        <v>4.64001468</v>
+        <v>4.6400146800000002</v>
       </c>
       <c r="D2">
-        <v>9.53708776</v>
+        <v>9.5370877600000004</v>
       </c>
       <c r="E2">
         <v>24.00050955</v>
@@ -4578,15 +6130,15 @@
         <v>10.63609827</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>131.72110890000022</v>
       </c>
       <c r="C3">
-        <v>5.4583715</v>
+        <v>5.4583715000000002</v>
       </c>
       <c r="D3">
         <v>10.793716159999999</v>
@@ -4598,55 +6150,55 @@
         <v>16.89275769</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>25.438532400000014</v>
       </c>
       <c r="C4">
-        <v>7.144006149999999</v>
+        <v>7.1440061499999992</v>
       </c>
       <c r="D4">
         <v>13.47802006</v>
       </c>
       <c r="E4">
-        <v>32.06911965</v>
+        <v>32.069119649999998</v>
       </c>
       <c r="F4">
         <v>20.07483843</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>51.37290329999999</v>
       </c>
       <c r="C5">
-        <v>7.97851152</v>
+        <v>7.9785115199999996</v>
       </c>
       <c r="D5">
-        <v>13.36636188</v>
+        <v>13.366361879999999</v>
       </c>
       <c r="E5">
-        <v>35.74215845</v>
+        <v>35.742158449999998</v>
       </c>
       <c r="F5">
         <v>23.135000700000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>3.329349900000011</v>
+        <v>3.3293499000000111</v>
       </c>
       <c r="B6">
         <v>68.26121040000001</v>
       </c>
       <c r="C6">
-        <v>8.0471868</v>
+        <v>8.0471868000000004</v>
       </c>
       <c r="D6">
         <v>16.53032632</v>
@@ -4658,52 +6210,52 @@
         <v>24.223436669999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>51.05850269999999</v>
+        <v>51.058502699999991</v>
       </c>
       <c r="B7">
         <v>46.668736499999994</v>
       </c>
       <c r="C7">
-        <v>7.851144100000001</v>
+        <v>7.8511441000000008</v>
       </c>
       <c r="D7">
-        <v>16.18275656</v>
+        <v>16.182756560000001</v>
       </c>
       <c r="E7">
-        <v>36.15903785</v>
+        <v>36.159037849999997</v>
       </c>
       <c r="F7">
         <v>23.28334284</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>69.77485710000002</v>
       </c>
       <c r="B8">
-        <v>95.31860081000036</v>
+        <v>95.318600810000362</v>
       </c>
       <c r="C8">
-        <v>7.07830387</v>
+        <v>7.0783038700000001</v>
       </c>
       <c r="D8">
-        <v>15.99270036</v>
+        <v>15.992700360000001</v>
       </c>
       <c r="E8">
         <v>38.2149237</v>
       </c>
       <c r="F8">
-        <v>23.04061416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>23.040614160000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>213.2637129</v>
       </c>
       <c r="B9">
-        <v>95.08858650000002</v>
+        <v>95.088586500000019</v>
       </c>
       <c r="C9">
         <v>7.7646966200000005</v>
@@ -4712,78 +6264,78 @@
         <v>17.080470679999998</v>
       </c>
       <c r="E9">
-        <v>39.66071905</v>
+        <v>39.660719049999997</v>
       </c>
       <c r="F9">
         <v>24.645994589999997</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>94.94512499999999</v>
       </c>
       <c r="B10">
-        <v>66.72025830000001</v>
+        <v>66.720258300000012</v>
       </c>
       <c r="C10">
-        <v>8.63191232</v>
+        <v>8.6319123199999996</v>
       </c>
       <c r="D10">
-        <v>18.53180342</v>
+        <v>18.531803419999999</v>
       </c>
       <c r="E10">
-        <v>37.725191</v>
+        <v>37.725191000000002</v>
       </c>
       <c r="F10">
         <v>24.983629739999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>158.92314805999987</v>
       </c>
       <c r="B11">
-        <v>154.5333069</v>
+        <v>154.53330690000001</v>
       </c>
       <c r="C11">
-        <v>8.33182002</v>
+        <v>8.3318200200000003</v>
       </c>
       <c r="D11">
-        <v>17.80143568</v>
+        <v>17.801435680000001</v>
       </c>
       <c r="E11">
-        <v>37.41610285</v>
+        <v>37.416102850000001</v>
       </c>
       <c r="F11">
-        <v>22.54418649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>22.544186490000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100.40314139999998</v>
       </c>
       <c r="B12">
-        <v>83.2148684733326</v>
+        <v>83.214868473332601</v>
       </c>
       <c r="C12">
-        <v>7.744792390000001</v>
+        <v>7.7447923900000006</v>
       </c>
       <c r="D12">
         <v>18.72563778</v>
       </c>
       <c r="E12">
-        <v>40.9224073</v>
+        <v>40.922407300000003</v>
       </c>
       <c r="F12">
         <v>22.1108352</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>194.80726846</v>
+        <v>194.80726845999999</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>6.4134005400000005</v>
@@ -4792,33 +6344,33 @@
         <v>16.45330946</v>
       </c>
       <c r="E13">
-        <v>38.6390999</v>
+        <v>38.639099899999998</v>
       </c>
       <c r="F13">
-        <v>22.94692164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>22.946921639999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>232.4113248</v>
+        <v>232.41132479999999</v>
       </c>
       <c r="B14">
         <v>42.436097700000005</v>
       </c>
       <c r="C14">
-        <v>6.26471977</v>
+        <v>6.2647197700000001</v>
       </c>
       <c r="D14">
-        <v>15.316429</v>
+        <v>15.316428999999999</v>
       </c>
       <c r="E14">
-        <v>35.83718955</v>
+        <v>35.837189549999998</v>
       </c>
       <c r="F14">
-        <v>22.30367823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>22.303678229999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>219.67518990000002</v>
       </c>
@@ -4826,19 +6378,19 @@
         <v>147.9359169</v>
       </c>
       <c r="C15">
-        <v>6.87403887</v>
+        <v>6.8740388699999997</v>
       </c>
       <c r="D15">
-        <v>14.50911684</v>
+        <v>14.509116840000001</v>
       </c>
       <c r="E15">
-        <v>37.37591165</v>
+        <v>37.375911649999999</v>
       </c>
       <c r="F15">
-        <v>19.30383774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>19.303837739999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>191.93241481333357</v>
       </c>
@@ -4846,7 +6398,7 @@
         <v>177.07752870000002</v>
       </c>
       <c r="C16">
-        <v>6.8155346</v>
+        <v>6.8155346000000003</v>
       </c>
       <c r="D16">
         <v>14.228234220000001</v>
@@ -4858,12 +6410,12 @@
         <v>14.60943954</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>222.0630705</v>
+        <v>222.06307050000001</v>
       </c>
       <c r="B17">
-        <v>6.929213999999973</v>
+        <v>6.9292139999999733</v>
       </c>
       <c r="C17">
         <v>6.56027907</v>
@@ -4872,13 +6424,13 @@
         <v>14.547254380000002</v>
       </c>
       <c r="E17">
-        <v>35.70647235</v>
+        <v>35.706472349999999</v>
       </c>
       <c r="F17">
         <v>16.35335907</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>203.19577260000003</v>
       </c>
@@ -4898,7 +6450,7 @@
         <v>14.46999531</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>195.44544870000001</v>
       </c>
@@ -4906,19 +6458,19 @@
         <v>216.32327669999998</v>
       </c>
       <c r="C19">
-        <v>6.732784710000001</v>
+        <v>6.7327847100000007</v>
       </c>
       <c r="D19">
         <v>14.74061532</v>
       </c>
       <c r="E19">
-        <v>35.73558205</v>
+        <v>35.735582049999998</v>
       </c>
       <c r="F19">
-        <v>13.50420054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>13.504200539999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>218.77690800000002</v>
       </c>
@@ -4926,7 +6478,7 @@
         <v>233.78831910000002</v>
       </c>
       <c r="C20">
-        <v>4.90773235</v>
+        <v>4.9077323499999999</v>
       </c>
       <c r="D20">
         <v>15.667267359999999</v>
@@ -4935,30 +6487,30 @@
         <v>33.180337050000006</v>
       </c>
       <c r="F20">
-        <v>16.61063346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>16.610633459999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>215.7220785</v>
+        <v>215.72207850000001</v>
       </c>
       <c r="B21">
         <v>243.4653084</v>
       </c>
       <c r="C21">
-        <v>6.041896380000001</v>
+        <v>6.0418963800000007</v>
       </c>
       <c r="D21">
-        <v>15.36003098</v>
+        <v>15.360030979999999</v>
       </c>
       <c r="E21">
-        <v>37.0656341</v>
+        <v>37.065634099999997</v>
       </c>
       <c r="F21">
         <v>19.672697160000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>219.4463523</v>
       </c>
@@ -4972,15 +6524,15 @@
         <v>14.6525304</v>
       </c>
       <c r="E22">
-        <v>40.8419432</v>
+        <v>40.841943200000003</v>
       </c>
       <c r="F22">
         <v>20.392889189999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>39.4692345</v>
+        <v>39.469234499999999</v>
       </c>
       <c r="B23">
         <v>234.0713106</v>
@@ -4989,21 +6541,21 @@
         <v>8.16531333</v>
       </c>
       <c r="D23">
-        <v>15.49490008</v>
+        <v>15.494900080000001</v>
       </c>
       <c r="E23">
-        <v>37.9794668</v>
+        <v>37.979466799999997</v>
       </c>
       <c r="F23">
         <v>19.216964370000003</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>185.8181907</v>
       </c>
       <c r="B24">
-        <v>182.8995102</v>
+        <v>182.89951020000001</v>
       </c>
       <c r="C24">
         <v>8.163636949999999</v>
@@ -5012,21 +6564,21 @@
         <v>15.16486958</v>
       </c>
       <c r="E24">
-        <v>40.1120699</v>
+        <v>40.112069900000002</v>
       </c>
       <c r="F24">
-        <v>9.585294569999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>9.5852945699999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>56.79330239999999</v>
+        <v>56.793302399999988</v>
       </c>
       <c r="B25">
-        <v>79.1874393</v>
+        <v>79.187439299999994</v>
       </c>
       <c r="C25">
-        <v>8.07860049</v>
+        <v>8.0786004899999995</v>
       </c>
       <c r="D25">
         <v>12.865589459999999</v>
@@ -5035,7 +6587,7 @@
         <v>39.5116674</v>
       </c>
       <c r="F25">
-        <v>4.80658602</v>
+        <v>4.8065860200000001</v>
       </c>
     </row>
   </sheetData>
@@ -5044,14 +6596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098516A3-2341-4F8B-A6CA-5839DED59227}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5062,268 +6614,268 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1191.96621024</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1040.4454833099999</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1149.1450641500003</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1030.51088991</v>
+        <v>1030.5108899100001</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>959.0364794500001</v>
+        <v>959.03647945000012</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1587.8758196600002</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1707.4420802200002</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1424.0483174566673</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1868.80056095</v>
+        <v>1868.8005609500001</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1752.5159881</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1465.9773471266662</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1482.4803506300002</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1216.47809198</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1817.44880268</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1745.07235448</v>
+        <v>1745.0723544800001</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1373.61553551</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1616.72281032</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1407.9864281</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>975.97681493</v>
+        <v>975.97681493000005</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results_step3_zonal.xlsx
+++ b/results_step3_zonal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6601c3f8e6edde6a/Documents/Ms_Sustainable_Energy/46755_Renewables_in_electricity_markets/REIM_Github/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="115_{AAA1D341-523E-49BC-B362-3882824E717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86EF6968-ECA6-431F-B32B-519F41795441}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="115_{C15E41B9-484D-4BA6-B050-78D856857939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E935991-AE02-42CD-AA08-782EB1BDAFFB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="6" activeTab="12" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="11" activeTab="12" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DA_Prices" sheetId="1" r:id="rId1"/>
@@ -123,18 +123,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,297 +460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C885426-E243-4707-84A6-86E79A0CB291}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>10.52</v>
-      </c>
-      <c r="B2">
-        <v>10.52</v>
-      </c>
-      <c r="C2">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>10.52</v>
-      </c>
-      <c r="B3">
-        <v>10.52</v>
-      </c>
-      <c r="C3">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10.52</v>
-      </c>
-      <c r="B5">
-        <v>10.52</v>
-      </c>
-      <c r="C5">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10.52</v>
-      </c>
-      <c r="B8">
-        <v>10.52</v>
-      </c>
-      <c r="C8">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>10.52</v>
-      </c>
-      <c r="B9">
-        <v>10.52</v>
-      </c>
-      <c r="C9">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10.52</v>
-      </c>
-      <c r="B10">
-        <v>10.52</v>
-      </c>
-      <c r="C10">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10.52</v>
-      </c>
-      <c r="B11">
-        <v>10.52</v>
-      </c>
-      <c r="C11">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10.52</v>
-      </c>
-      <c r="B12">
-        <v>10.52</v>
-      </c>
-      <c r="C12">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>10.52</v>
-      </c>
-      <c r="B13">
-        <v>10.52</v>
-      </c>
-      <c r="C13">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>10.89</v>
-      </c>
-      <c r="B14">
-        <v>10.89</v>
-      </c>
-      <c r="C14">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>10.89</v>
-      </c>
-      <c r="B15">
-        <v>10.89</v>
-      </c>
-      <c r="C15">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>10.52</v>
-      </c>
-      <c r="B16">
-        <v>10.52</v>
-      </c>
-      <c r="C16">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>10.52</v>
-      </c>
-      <c r="B17">
-        <v>10.52</v>
-      </c>
-      <c r="C17">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>10.52</v>
-      </c>
-      <c r="B18">
-        <v>10.52</v>
-      </c>
-      <c r="C18">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>10.52</v>
-      </c>
-      <c r="B19">
-        <v>10.52</v>
-      </c>
-      <c r="C19">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>10.89</v>
-      </c>
-      <c r="B20">
-        <v>10.89</v>
-      </c>
-      <c r="C20">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>10.89</v>
-      </c>
-      <c r="B21">
-        <v>10.89</v>
-      </c>
-      <c r="C21">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>10.52</v>
-      </c>
-      <c r="B22">
-        <v>10.52</v>
-      </c>
-      <c r="C22">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>10.52</v>
-      </c>
-      <c r="B23">
-        <v>10.52</v>
-      </c>
-      <c r="C23">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>10.52</v>
-      </c>
-      <c r="B24">
-        <v>10.52</v>
-      </c>
-      <c r="C24">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D559A612-A82F-4CEB-B5FF-C3D8A0046DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C711D90-52B5-4570-A517-FF5BF700D938}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -775,266 +480,266 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>541.62</v>
+        <v>10.52</v>
       </c>
       <c r="B2">
-        <v>310.78000000000003</v>
+        <v>10.52</v>
       </c>
       <c r="C2">
-        <v>390.69</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>890.00999999999988</v>
+        <v>10.52</v>
       </c>
       <c r="B3">
-        <v>247.14</v>
+        <v>10.52</v>
       </c>
       <c r="C3">
-        <v>153.62</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>661.56</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>235.36999999999998</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>241.72000000000003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>550.45000000000005</v>
+        <v>10.52</v>
       </c>
       <c r="B5">
-        <v>386.25</v>
+        <v>10.52</v>
       </c>
       <c r="C5">
-        <v>344.03999999999996</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>688.06000000000006</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>248.64</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>250.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>559.78</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>338.74</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>241.72000000000003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>794.35</v>
+        <v>10.52</v>
       </c>
       <c r="B8">
-        <v>241.25</v>
+        <v>10.52</v>
       </c>
       <c r="C8">
-        <v>313.82</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1135.1499999999999</v>
+        <v>10.52</v>
       </c>
       <c r="B9">
-        <v>485.53000000000003</v>
+        <v>10.52</v>
       </c>
       <c r="C9">
-        <v>364.7</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1180.9299999999998</v>
+        <v>10.52</v>
       </c>
       <c r="B10">
-        <v>224.10000000000002</v>
+        <v>10.52</v>
       </c>
       <c r="C10">
-        <v>553.95000000000005</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1356.2099999999998</v>
+        <v>10.52</v>
       </c>
       <c r="B11">
-        <v>468.17999999999995</v>
+        <v>10.52</v>
       </c>
       <c r="C11">
-        <v>295.16000000000003</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>664.11</v>
+        <v>10.52</v>
       </c>
       <c r="B12">
-        <v>473.27</v>
+        <v>10.52</v>
       </c>
       <c r="C12">
-        <v>559.79</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1062.58</v>
+        <v>10.52</v>
       </c>
       <c r="B13">
-        <v>493.52</v>
+        <v>10.52</v>
       </c>
       <c r="C13">
-        <v>443.15999999999997</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1047.48</v>
+        <v>10.89</v>
       </c>
       <c r="B14">
-        <v>621.93999999999994</v>
+        <v>10.89</v>
       </c>
       <c r="C14">
-        <v>553.95000000000005</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1107.9100000000001</v>
+        <v>10.89</v>
       </c>
       <c r="B15">
-        <v>536.32999999999993</v>
+        <v>10.89</v>
       </c>
       <c r="C15">
-        <v>553.95000000000005</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1084.58</v>
+        <v>10.52</v>
       </c>
       <c r="B16">
-        <v>389.46000000000004</v>
+        <v>10.52</v>
       </c>
       <c r="C16">
-        <v>433.84000000000003</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>939.15</v>
+        <v>10.52</v>
       </c>
       <c r="B17">
-        <v>303.19</v>
+        <v>10.52</v>
       </c>
       <c r="C17">
-        <v>542.29999999999995</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1062.72</v>
+        <v>10.52</v>
       </c>
       <c r="B18">
-        <v>482.81</v>
+        <v>10.52</v>
       </c>
       <c r="C18">
-        <v>577.28</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>893.21999999999991</v>
+        <v>10.52</v>
       </c>
       <c r="B19">
-        <v>402.87</v>
+        <v>10.52</v>
       </c>
       <c r="C19">
-        <v>402.87</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1319.9500000000003</v>
+        <v>10.89</v>
       </c>
       <c r="B20">
-        <v>564.54999999999995</v>
+        <v>10.89</v>
       </c>
       <c r="C20">
-        <v>455.88</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1267.1499999999999</v>
+        <v>10.89</v>
       </c>
       <c r="B21">
-        <v>628.48</v>
+        <v>10.89</v>
       </c>
       <c r="C21">
-        <v>386.77</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1017.85</v>
+        <v>10.52</v>
       </c>
       <c r="B22">
-        <v>535.45000000000005</v>
+        <v>10.52</v>
       </c>
       <c r="C22">
-        <v>366.62</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1172.55</v>
+        <v>10.52</v>
       </c>
       <c r="B23">
-        <v>543.38</v>
+        <v>10.52</v>
       </c>
       <c r="C23">
-        <v>255.19</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1031.28</v>
+        <v>10.52</v>
       </c>
       <c r="B24">
-        <v>477.92000000000007</v>
+        <v>10.52</v>
       </c>
       <c r="C24">
-        <v>340.53</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>611.15</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>412.45000000000005</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>153.62</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1042,8 +747,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2700EE2D-15D3-4838-8850-845370C60D7C}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C7603-5253-47D3-847A-E00A72665BC8}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1063,6 +768,294 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>541.62</v>
+      </c>
+      <c r="B2">
+        <v>310.78000000000003</v>
+      </c>
+      <c r="C2">
+        <v>390.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>890.00999999999988</v>
+      </c>
+      <c r="B3">
+        <v>247.14</v>
+      </c>
+      <c r="C3">
+        <v>153.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>661.56</v>
+      </c>
+      <c r="B4">
+        <v>235.36999999999998</v>
+      </c>
+      <c r="C4">
+        <v>241.72000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>550.45000000000005</v>
+      </c>
+      <c r="B5">
+        <v>386.25</v>
+      </c>
+      <c r="C5">
+        <v>344.03999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>688.06000000000006</v>
+      </c>
+      <c r="B6">
+        <v>248.64</v>
+      </c>
+      <c r="C6">
+        <v>250.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>559.78</v>
+      </c>
+      <c r="B7">
+        <v>338.74</v>
+      </c>
+      <c r="C7">
+        <v>241.72000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>794.35</v>
+      </c>
+      <c r="B8">
+        <v>241.25</v>
+      </c>
+      <c r="C8">
+        <v>313.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1135.1499999999999</v>
+      </c>
+      <c r="B9">
+        <v>485.53000000000003</v>
+      </c>
+      <c r="C9">
+        <v>364.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1180.9299999999998</v>
+      </c>
+      <c r="B10">
+        <v>224.10000000000002</v>
+      </c>
+      <c r="C10">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1356.2099999999998</v>
+      </c>
+      <c r="B11">
+        <v>468.17999999999995</v>
+      </c>
+      <c r="C11">
+        <v>295.16000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>664.11</v>
+      </c>
+      <c r="B12">
+        <v>473.27</v>
+      </c>
+      <c r="C12">
+        <v>559.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1062.58</v>
+      </c>
+      <c r="B13">
+        <v>493.52</v>
+      </c>
+      <c r="C13">
+        <v>443.15999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1047.48</v>
+      </c>
+      <c r="B14">
+        <v>621.93999999999994</v>
+      </c>
+      <c r="C14">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1107.9100000000001</v>
+      </c>
+      <c r="B15">
+        <v>536.32999999999993</v>
+      </c>
+      <c r="C15">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1084.58</v>
+      </c>
+      <c r="B16">
+        <v>389.46000000000004</v>
+      </c>
+      <c r="C16">
+        <v>433.84000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>939.15</v>
+      </c>
+      <c r="B17">
+        <v>303.19</v>
+      </c>
+      <c r="C17">
+        <v>542.29999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1062.72</v>
+      </c>
+      <c r="B18">
+        <v>482.81</v>
+      </c>
+      <c r="C18">
+        <v>577.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>893.21999999999991</v>
+      </c>
+      <c r="B19">
+        <v>402.87</v>
+      </c>
+      <c r="C19">
+        <v>402.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1319.9500000000003</v>
+      </c>
+      <c r="B20">
+        <v>564.54999999999995</v>
+      </c>
+      <c r="C20">
+        <v>455.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1267.1499999999999</v>
+      </c>
+      <c r="B21">
+        <v>628.48</v>
+      </c>
+      <c r="C21">
+        <v>386.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1017.85</v>
+      </c>
+      <c r="B22">
+        <v>535.45000000000005</v>
+      </c>
+      <c r="C22">
+        <v>366.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1172.55</v>
+      </c>
+      <c r="B23">
+        <v>543.38</v>
+      </c>
+      <c r="C23">
+        <v>255.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1031.28</v>
+      </c>
+      <c r="B24">
+        <v>477.92000000000007</v>
+      </c>
+      <c r="C24">
+        <v>340.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>611.15</v>
+      </c>
+      <c r="B25">
+        <v>412.45000000000005</v>
+      </c>
+      <c r="C25">
+        <v>153.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394DCE47-7421-4E28-B981-D3DAF51773C5}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>48.813710260000001</v>
       </c>
       <c r="B2">
@@ -1331,16 +1324,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93008EC9-18E2-402E-A6A1-78C91AB7F316}">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060B79CC-9028-47CB-A1F5-658D20F5FC76}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1378,984 +1371,165 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1800</v>
-      </c>
-      <c r="I2">
-        <v>2020</v>
-      </c>
-      <c r="J2">
-        <v>156</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>229.40000000000055</v>
+      </c>
+      <c r="G2" s="1">
+        <v>229.40000000000055</v>
+      </c>
+      <c r="H2" s="1">
+        <v>42960</v>
+      </c>
+      <c r="I2" s="1">
+        <v>48240</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3564</v>
+      </c>
+      <c r="K2" s="1">
+        <v>458.80000000000109</v>
+      </c>
+      <c r="L2" s="1">
         <v>-14.800000000000068</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1800</v>
-      </c>
-      <c r="I3">
-        <v>2020</v>
-      </c>
-      <c r="J3">
-        <v>156</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1592</v>
-      </c>
-      <c r="I4">
-        <v>1812</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1800</v>
-      </c>
-      <c r="I5">
-        <v>2020</v>
-      </c>
-      <c r="J5">
-        <v>156</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1592</v>
-      </c>
-      <c r="I6">
-        <v>1812</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1592</v>
-      </c>
-      <c r="I7">
-        <v>1812</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1800</v>
-      </c>
-      <c r="I8">
-        <v>2020</v>
-      </c>
-      <c r="J8">
-        <v>156</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1800</v>
-      </c>
-      <c r="I9">
-        <v>2020</v>
-      </c>
-      <c r="J9">
-        <v>156</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1800</v>
-      </c>
-      <c r="I10">
-        <v>2020</v>
-      </c>
-      <c r="J10">
-        <v>156</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1800</v>
-      </c>
-      <c r="I11">
-        <v>2020</v>
-      </c>
-      <c r="J11">
-        <v>156</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1800</v>
-      </c>
-      <c r="I12">
-        <v>2020</v>
-      </c>
-      <c r="J12">
-        <v>156</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1800</v>
-      </c>
-      <c r="I13">
-        <v>2020</v>
-      </c>
-      <c r="J13">
-        <v>156</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="G14">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="H14">
-        <v>1948</v>
-      </c>
-      <c r="I14">
-        <v>2168</v>
-      </c>
-      <c r="J14">
-        <v>267</v>
-      </c>
-      <c r="K14">
-        <v>114.70000000000027</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="G15">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="H15">
-        <v>1948</v>
-      </c>
-      <c r="I15">
-        <v>2168</v>
-      </c>
-      <c r="J15">
-        <v>267</v>
-      </c>
-      <c r="K15">
-        <v>114.70000000000027</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1800</v>
-      </c>
-      <c r="I16">
-        <v>2020</v>
-      </c>
-      <c r="J16">
-        <v>156</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1800</v>
-      </c>
-      <c r="I17">
-        <v>2020</v>
-      </c>
-      <c r="J17">
-        <v>156</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1800</v>
-      </c>
-      <c r="I18">
-        <v>2020</v>
-      </c>
-      <c r="J18">
-        <v>156</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1800</v>
-      </c>
-      <c r="I19">
-        <v>2020</v>
-      </c>
-      <c r="J19">
-        <v>156</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="G20">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="H20">
-        <v>1948</v>
-      </c>
-      <c r="I20">
-        <v>2168</v>
-      </c>
-      <c r="J20">
-        <v>267</v>
-      </c>
-      <c r="K20">
-        <v>114.70000000000027</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="G21">
-        <v>57.350000000000136</v>
-      </c>
-      <c r="H21">
-        <v>1948</v>
-      </c>
-      <c r="I21">
-        <v>2168</v>
-      </c>
-      <c r="J21">
-        <v>267</v>
-      </c>
-      <c r="K21">
-        <v>114.70000000000027</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1800</v>
-      </c>
-      <c r="I22">
-        <v>2020</v>
-      </c>
-      <c r="J22">
-        <v>156</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1800</v>
-      </c>
-      <c r="I23">
-        <v>2020</v>
-      </c>
-      <c r="J23">
-        <v>156</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1800</v>
-      </c>
-      <c r="I24">
-        <v>2020</v>
-      </c>
-      <c r="J24">
-        <v>156</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1592</v>
-      </c>
-      <c r="I25">
-        <v>1812</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <f>SUM(A2:A25)</f>
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" ref="B27:L27" si="0">SUM(B2:B25)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>ROUND(B2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:M3" si="0">ROUND(C2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
+        <v>229.4</v>
+      </c>
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
-        <v>229.40000000000055</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>229.40000000000055</v>
-      </c>
-      <c r="H27" s="1">
+        <v>229.4</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>42960</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>48240</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>3564</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>458.80000000000109</v>
-      </c>
-      <c r="L27" s="1">
+        <v>458.8</v>
+      </c>
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
-        <v>-14.800000000000068</v>
+        <v>-14.8</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="str">
+        <f>A3&amp;","&amp;B3</f>
+        <v>0,0</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>B4&amp;","&amp;C3</f>
+        <v>0,0,0</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4" si="1">C4&amp;","&amp;D3</f>
+        <v>0,0,0,0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4" si="2">D4&amp;","&amp;E3</f>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4" si="3">E4&amp;","&amp;F3</f>
+        <v>0,0,0,0,0,229.4</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ref="G4" si="4">F4&amp;","&amp;G3</f>
+        <v>0,0,0,0,0,229.4,229.4</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4" si="5">G4&amp;","&amp;H3</f>
+        <v>0,0,0,0,0,229.4,229.4,42960</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4" si="6">H4&amp;","&amp;I3</f>
+        <v>0,0,0,0,0,229.4,229.4,42960,48240</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J4" si="7">I4&amp;","&amp;J3</f>
+        <v>0,0,0,0,0,229.4,229.4,42960,48240,3564</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" ref="K4" si="8">J4&amp;","&amp;K3</f>
+        <v>0,0,0,0,0,229.4,229.4,42960,48240,3564,458.8</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>K4&amp;","&amp;L3</f>
+        <v>0,0,0,0,0,229.4,229.4,42960,48240,3564,458.8,-14.8</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>"["&amp;L4&amp;"]"</f>
+        <v>[0,0,0,0,0,229.4,229.4,42960,48240,3564,458.8,-14.8]</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21729D5A-FAAF-40C7-8FE8-A3EC19249BB8}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDEF319-98E5-44A3-8372-55829D2B15FD}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2375,493 +1549,99 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>32748.138651658672</v>
       </c>
       <c r="B2">
-        <v>24.302036340000004</v>
+        <v>29145.302839771666</v>
       </c>
       <c r="C2">
-        <v>48.812954433599998</v>
+        <v>1772.2064520913002</v>
       </c>
       <c r="D2">
-        <v>100.3301632352</v>
+        <v>3796.5983979345997</v>
       </c>
       <c r="E2">
-        <v>252.485360466</v>
+        <v>9109.3903953575009</v>
       </c>
       <c r="F2">
-        <v>111.8917538004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1385.7060656280023</v>
-      </c>
-      <c r="C3">
-        <v>57.422068179999997</v>
-      </c>
-      <c r="D3">
-        <v>113.54989400319998</v>
-      </c>
-      <c r="E3">
-        <v>272.51056128999994</v>
-      </c>
-      <c r="F3">
-        <v>177.7118108988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>254.38532400000014</v>
-      </c>
-      <c r="C4">
-        <v>71.440061499999985</v>
-      </c>
-      <c r="D4">
-        <v>134.7802006</v>
-      </c>
-      <c r="E4">
-        <v>320.69119649999999</v>
-      </c>
-      <c r="F4">
-        <v>200.7483843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>540.44294271599983</v>
-      </c>
-      <c r="C5">
-        <v>83.933941190399992</v>
-      </c>
-      <c r="D5">
-        <v>140.61412697759999</v>
-      </c>
-      <c r="E5">
-        <v>376.00750689399996</v>
-      </c>
-      <c r="F5">
-        <v>243.38020736400003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>33.293499000000111</v>
-      </c>
-      <c r="B6">
-        <v>682.61210400000004</v>
-      </c>
-      <c r="C6">
-        <v>80.471868000000001</v>
-      </c>
-      <c r="D6">
-        <v>165.3032632</v>
-      </c>
-      <c r="E6">
-        <v>360.07600000000002</v>
-      </c>
-      <c r="F6">
-        <v>242.23436669999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>510.58502699999991</v>
-      </c>
-      <c r="B7">
-        <v>466.68736499999994</v>
-      </c>
-      <c r="C7">
-        <v>78.511441000000005</v>
-      </c>
-      <c r="D7">
-        <v>161.82756560000001</v>
-      </c>
-      <c r="E7">
-        <v>361.59037849999999</v>
-      </c>
-      <c r="F7">
-        <v>232.8334284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>734.03149669200013</v>
-      </c>
-      <c r="B8">
-        <v>1002.7516805212038</v>
-      </c>
-      <c r="C8">
-        <v>74.463756712399999</v>
-      </c>
-      <c r="D8">
-        <v>168.24320778719999</v>
-      </c>
-      <c r="E8">
-        <v>402.02099732400001</v>
-      </c>
-      <c r="F8">
-        <v>242.38726096319999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2243.5342597079998</v>
-      </c>
-      <c r="B9">
-        <v>1000.3319299800002</v>
-      </c>
-      <c r="C9">
-        <v>81.684608442400005</v>
-      </c>
-      <c r="D9">
-        <v>179.68655155359997</v>
-      </c>
-      <c r="E9">
-        <v>417.23076440599993</v>
-      </c>
-      <c r="F9">
-        <v>259.27586308679997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>998.8227149999999</v>
-      </c>
-      <c r="B10">
-        <v>701.89711731600005</v>
-      </c>
-      <c r="C10">
-        <v>90.80771760639999</v>
-      </c>
-      <c r="D10">
-        <v>194.9545719784</v>
-      </c>
-      <c r="E10">
-        <v>396.86900932000003</v>
-      </c>
-      <c r="F10">
-        <v>262.82778486479998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1671.8715175911987</v>
-      </c>
-      <c r="B11">
-        <v>1625.6903885880001</v>
-      </c>
-      <c r="C11">
-        <v>87.650746610400006</v>
-      </c>
-      <c r="D11">
-        <v>187.27110335360001</v>
-      </c>
-      <c r="E11">
-        <v>393.61740198199999</v>
-      </c>
-      <c r="F11">
-        <v>237.1648418748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1056.2410475279999</v>
-      </c>
-      <c r="B12">
-        <v>875.42041633945894</v>
-      </c>
-      <c r="C12">
-        <v>81.475215942800006</v>
-      </c>
-      <c r="D12">
-        <v>196.99370944559999</v>
-      </c>
-      <c r="E12">
-        <v>430.50372479600003</v>
-      </c>
-      <c r="F12">
-        <v>232.605986304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2049.3724641991998</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>67.468973680800005</v>
-      </c>
-      <c r="D13">
-        <v>173.08881551919998</v>
-      </c>
-      <c r="E13">
-        <v>406.48333094799995</v>
-      </c>
-      <c r="F13">
-        <v>241.40161565279999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2530.9593270720002</v>
-      </c>
-      <c r="B14">
-        <v>462.12910395300008</v>
-      </c>
-      <c r="C14">
-        <v>68.222798295300009</v>
-      </c>
-      <c r="D14">
-        <v>166.79591181000001</v>
-      </c>
-      <c r="E14">
-        <v>390.2669941995</v>
-      </c>
-      <c r="F14">
-        <v>242.88705592470001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2392.2628180110005</v>
-      </c>
-      <c r="B15">
-        <v>1611.022135041</v>
-      </c>
-      <c r="C15">
-        <v>74.858283294299994</v>
-      </c>
-      <c r="D15">
-        <v>158.00428238760003</v>
-      </c>
-      <c r="E15">
-        <v>407.02367786849999</v>
-      </c>
-      <c r="F15">
-        <v>210.2187929886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2019.129003836269</v>
-      </c>
-      <c r="B16">
-        <v>1862.855601924</v>
-      </c>
-      <c r="C16">
-        <v>71.699423992000007</v>
-      </c>
-      <c r="D16">
-        <v>149.68102399439999</v>
-      </c>
-      <c r="E16">
-        <v>391.75955052</v>
-      </c>
-      <c r="F16">
-        <v>153.69130396079998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2336.1035016599999</v>
-      </c>
-      <c r="B17">
-        <v>72.895331279999724</v>
-      </c>
-      <c r="C17">
-        <v>69.0141358164</v>
-      </c>
-      <c r="D17">
-        <v>153.03711607760002</v>
-      </c>
-      <c r="E17">
-        <v>375.63208912199997</v>
-      </c>
-      <c r="F17">
-        <v>172.03733741639999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2137.6195277520001</v>
-      </c>
-      <c r="B18">
-        <v>1357.4608634500014</v>
-      </c>
-      <c r="C18">
-        <v>68.711391361599993</v>
-      </c>
-      <c r="D18">
-        <v>154.1370470912</v>
-      </c>
-      <c r="E18">
-        <v>367.40801968400001</v>
-      </c>
-      <c r="F18">
-        <v>152.22435066119999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2056.0861203240001</v>
-      </c>
-      <c r="B19">
-        <v>2275.7208708839999</v>
-      </c>
-      <c r="C19">
-        <v>70.828895149200008</v>
-      </c>
-      <c r="D19">
-        <v>155.0712731664</v>
-      </c>
-      <c r="E19">
-        <v>375.93832316599998</v>
-      </c>
-      <c r="F19">
-        <v>142.06418968079998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2382.4805281200001</v>
-      </c>
-      <c r="B20">
-        <v>2545.9547949990006</v>
-      </c>
-      <c r="C20">
-        <v>53.445205291500002</v>
-      </c>
-      <c r="D20">
-        <v>170.6165415504</v>
-      </c>
-      <c r="E20">
-        <v>361.33387047450009</v>
-      </c>
-      <c r="F20">
-        <v>180.88979837939999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2349.2134348650002</v>
-      </c>
-      <c r="B21">
-        <v>2651.3372084760003</v>
-      </c>
-      <c r="C21">
-        <v>65.796251578200014</v>
-      </c>
-      <c r="D21">
-        <v>167.27073737219999</v>
-      </c>
-      <c r="E21">
-        <v>403.64475534899998</v>
-      </c>
-      <c r="F21">
-        <v>214.23567207240004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2308.575626196</v>
-      </c>
-      <c r="B22">
-        <v>2567.2921315199997</v>
-      </c>
-      <c r="C22">
-        <v>72.920152167999987</v>
-      </c>
-      <c r="D22">
-        <v>154.14461980799999</v>
-      </c>
-      <c r="E22">
-        <v>429.65724246400003</v>
-      </c>
-      <c r="F22">
-        <v>214.53319427879998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>415.21634693999999</v>
-      </c>
-      <c r="B23">
-        <v>2462.430187512</v>
-      </c>
-      <c r="C23">
-        <v>85.899096231599998</v>
-      </c>
-      <c r="D23">
-        <v>163.00634884159999</v>
-      </c>
-      <c r="E23">
-        <v>399.54399073599996</v>
-      </c>
-      <c r="F23">
-        <v>202.16246517240003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1954.8073661639999</v>
-      </c>
-      <c r="B24">
-        <v>1924.1028473040001</v>
-      </c>
-      <c r="C24">
-        <v>85.881460713999985</v>
-      </c>
-      <c r="D24">
-        <v>159.53442798159998</v>
-      </c>
-      <c r="E24">
-        <v>421.97897534800001</v>
-      </c>
-      <c r="F24">
-        <v>100.83729887639998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>567.93302399999993</v>
-      </c>
-      <c r="B25">
-        <v>791.87439299999994</v>
-      </c>
-      <c r="C25">
-        <v>80.786004899999995</v>
-      </c>
-      <c r="D25">
-        <v>128.65589459999998</v>
-      </c>
-      <c r="E25">
-        <v>395.11667399999999</v>
-      </c>
-      <c r="F25">
-        <v>48.065860200000003</v>
+        <v>4718.3106238214996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <f>A2</f>
+        <v>32748.138651658672</v>
+      </c>
+      <c r="B3" s="2">
+        <f>ROUND(B2,2)</f>
+        <v>29145.3</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:M3" si="0">ROUND(C2,2)</f>
+        <v>1772.21</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>3796.6</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>9109.39</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>4718.3100000000004</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="str">
+        <f>A3&amp;","&amp;B3</f>
+        <v>32748.1386516587,29145.3</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>B4&amp;","&amp;C3</f>
+        <v>32748.1386516587,29145.3,1772.21</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4:K4" si="1">C4&amp;","&amp;D3</f>
+        <v>32748.1386516587,29145.3,1772.21,3796.6</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>32748.1386516587,29145.3,1772.21,3796.6,9109.39</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>32748.1386516587,29145.3,1772.21,3796.6,9109.39,4718.31</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="str">
+        <f>"["&amp;F4&amp;"]"</f>
+        <v>[32748.1386516587,29145.3,1772.21,3796.6,9109.39,4718.31]</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECBBDCB-F374-4D19-ACD4-46256F8A15F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34A915-06DE-439C-A27B-F3C33B5EA90C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2918,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D376BD51-5212-408C-B01F-2E5A50462DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC16084D-EB8B-4B7A-A93D-4F6BCDEDD88A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3206,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2576DD9-3A0E-433A-8050-260C7B30451A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE44B617-0C14-49D4-9F38-32932591EEED}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3494,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD3CDE3-F1B8-4756-8F84-64C6374A6D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A89DD4-91BD-4F2E-A74F-E22D14914844}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3782,7 +2562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36599E27-47EA-435A-8CFE-BE229FD3A2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE40EF-CA5D-4D8D-83F9-C1D2A911BDD9}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4745,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4977C-3BFE-4C1B-AD1D-13F9FB59A381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9421DC1-E95A-403A-B216-ACA0CBE9B66D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6083,7 +4863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3F32F-0728-4573-9448-0C5062A33804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CEAD9B-6BBD-4082-934B-3293FABBD00A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6596,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098516A3-2341-4F8B-A6CA-5839DED59227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C89E50-90BD-47A7-8A4B-BE6DE47E55F0}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
